--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9259439267844909</v>
+        <v>0.9259439267844908</v>
       </c>
       <c r="D2">
         <v>1.014392069845986</v>
       </c>
       <c r="E2">
-        <v>0.9400868912252143</v>
+        <v>0.9400868912252142</v>
       </c>
       <c r="F2">
         <v>0.9559819053822265</v>
@@ -445,7 +445,7 @@
         <v>1.025654476425044</v>
       </c>
       <c r="L2">
-        <v>0.9524492158041065</v>
+        <v>0.9524492158041062</v>
       </c>
       <c r="M2">
         <v>0.968090564232795</v>
@@ -465,10 +465,10 @@
         <v>1.02112249551749</v>
       </c>
       <c r="E3">
-        <v>0.9537502221748864</v>
+        <v>0.953750222174886</v>
       </c>
       <c r="F3">
-        <v>0.9695866229776761</v>
+        <v>0.9695866229776757</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041078419135882</v>
       </c>
       <c r="J3">
-        <v>0.9640054751860416</v>
+        <v>0.9640054751860415</v>
       </c>
       <c r="K3">
         <v>1.031492059371291</v>
       </c>
       <c r="L3">
-        <v>0.9650112004395252</v>
+        <v>0.9650112004395248</v>
       </c>
       <c r="M3">
-        <v>0.9806240295598152</v>
+        <v>0.9806240295598148</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9514074526164504</v>
+        <v>0.9514074526164522</v>
       </c>
       <c r="D4">
         <v>1.025238436986748</v>
       </c>
       <c r="E4">
-        <v>0.9620481442991162</v>
+        <v>0.9620481442991182</v>
       </c>
       <c r="F4">
-        <v>0.9778746479966137</v>
+        <v>0.9778746479966151</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043361524634224</v>
       </c>
       <c r="J4">
-        <v>0.9721414893774234</v>
+        <v>0.9721414893774249</v>
       </c>
       <c r="K4">
         <v>1.035041507718888</v>
       </c>
       <c r="L4">
-        <v>0.9726272752635308</v>
+        <v>0.9726272752635324</v>
       </c>
       <c r="M4">
-        <v>0.9882476509562591</v>
+        <v>0.9882476509562602</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9553152664258482</v>
+        <v>0.9553152664258496</v>
       </c>
       <c r="D5">
-        <v>1.026917445030961</v>
+        <v>1.02691744503096</v>
       </c>
       <c r="E5">
-        <v>0.9654217494810101</v>
+        <v>0.9654217494810111</v>
       </c>
       <c r="F5">
-        <v>0.981249675693785</v>
+        <v>0.9812496756937857</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044286299716894</v>
+        <v>1.044286299716895</v>
       </c>
       <c r="J5">
-        <v>0.9754466597387809</v>
+        <v>0.9754466597387821</v>
       </c>
       <c r="K5">
         <v>1.036484765452351</v>
       </c>
       <c r="L5">
-        <v>0.9757206296255265</v>
+        <v>0.9757206296255275</v>
       </c>
       <c r="M5">
-        <v>0.9913493631837077</v>
+        <v>0.9913493631837084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9559639690725119</v>
+        <v>0.9559639690725135</v>
       </c>
       <c r="D6">
-        <v>1.027196498471801</v>
+        <v>1.027196498471802</v>
       </c>
       <c r="E6">
-        <v>0.9659818443396673</v>
+        <v>0.9659818443396688</v>
       </c>
       <c r="F6">
-        <v>0.9818103088586262</v>
+        <v>0.9818103088586274</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044439618510479</v>
       </c>
       <c r="J6">
-        <v>0.9759952415528809</v>
+        <v>0.9759952415528823</v>
       </c>
       <c r="K6">
         <v>1.036724368830902</v>
       </c>
       <c r="L6">
-        <v>0.9762340195097226</v>
+        <v>0.9762340195097242</v>
       </c>
       <c r="M6">
-        <v>0.9918644346472093</v>
+        <v>0.9918644346472104</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9514601769148497</v>
+        <v>0.9514601769148477</v>
       </c>
       <c r="D7">
-        <v>1.025261066714739</v>
+        <v>1.025261066714738</v>
       </c>
       <c r="E7">
-        <v>0.962093655986515</v>
+        <v>0.9620936559865132</v>
       </c>
       <c r="F7">
-        <v>0.9779201580482575</v>
+        <v>0.9779201580482559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043374014602369</v>
+        <v>1.043374014602368</v>
       </c>
       <c r="J7">
-        <v>0.9721860881256723</v>
+        <v>0.9721860881256706</v>
       </c>
       <c r="K7">
-        <v>1.035060978240676</v>
+        <v>1.035060978240675</v>
       </c>
       <c r="L7">
-        <v>0.9726690182323928</v>
+        <v>0.9726690182323913</v>
       </c>
       <c r="M7">
-        <v>0.9882894864244076</v>
+        <v>0.9882894864244061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9314441984720379</v>
+        <v>0.9314441984720364</v>
       </c>
       <c r="D8">
-        <v>1.016720105336183</v>
+        <v>1.016720105336182</v>
       </c>
       <c r="E8">
-        <v>0.9448271485840658</v>
+        <v>0.9448271485840642</v>
       </c>
       <c r="F8">
-        <v>0.9606957791909527</v>
+        <v>0.9606957791909514</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038612275435539</v>
+        <v>1.038612275435538</v>
       </c>
       <c r="J8">
-        <v>0.9552468887280328</v>
+        <v>0.9552468887280312</v>
       </c>
       <c r="K8">
         <v>1.027678256755883</v>
       </c>
       <c r="L8">
-        <v>0.9568102366526817</v>
+        <v>0.9568102366526803</v>
       </c>
       <c r="M8">
-        <v>0.9724358530820628</v>
+        <v>0.9724358530820616</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8901849346771981</v>
+        <v>0.8901849346771989</v>
       </c>
       <c r="D9">
-        <v>0.9994877798010534</v>
+        <v>0.9994877798010545</v>
       </c>
       <c r="E9">
-        <v>0.9093284635139478</v>
+        <v>0.9093284635139482</v>
       </c>
       <c r="F9">
-        <v>0.9255573484080156</v>
+        <v>0.9255573484080165</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028741351447634</v>
+        <v>1.028741351447635</v>
       </c>
       <c r="J9">
-        <v>0.9203154608541034</v>
+        <v>0.9203154608541041</v>
       </c>
       <c r="K9">
-        <v>1.012589172890754</v>
+        <v>1.012589172890755</v>
       </c>
       <c r="L9">
-        <v>0.9240865169409342</v>
+        <v>0.9240865169409346</v>
       </c>
       <c r="M9">
-        <v>0.9399858927720695</v>
+        <v>0.9399858927720703</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8563674168329678</v>
+        <v>0.8563674168329696</v>
       </c>
       <c r="D10">
-        <v>0.9858152158110132</v>
+        <v>0.9858152158110136</v>
       </c>
       <c r="E10">
-        <v>0.8803591123969091</v>
+        <v>0.880359112396911</v>
       </c>
       <c r="F10">
-        <v>0.8971784126206414</v>
+        <v>0.8971784126206424</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.020685607839548</v>
       </c>
       <c r="J10">
-        <v>0.8917189414330295</v>
+        <v>0.8917189414330313</v>
       </c>
       <c r="K10">
         <v>1.000445392589714</v>
       </c>
       <c r="L10">
-        <v>0.8972861340408489</v>
+        <v>0.8972861340408504</v>
       </c>
       <c r="M10">
-        <v>0.913690462529555</v>
+        <v>0.9136904625295562</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8393079423132995</v>
+        <v>0.8393079423132978</v>
       </c>
       <c r="D11">
-        <v>0.9790947205221147</v>
+        <v>0.9790947205221135</v>
       </c>
       <c r="E11">
-        <v>0.8657999351506529</v>
+        <v>0.8657999351506512</v>
       </c>
       <c r="F11">
-        <v>0.8830262249225584</v>
+        <v>0.8830262249225573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016657732607233</v>
+        <v>1.016657732607232</v>
       </c>
       <c r="J11">
-        <v>0.8773195079398831</v>
+        <v>0.8773195079398814</v>
       </c>
       <c r="K11">
-        <v>0.9944219498943996</v>
+        <v>0.9944219498943985</v>
       </c>
       <c r="L11">
-        <v>0.8837901117224914</v>
+        <v>0.88379011172249</v>
       </c>
       <c r="M11">
-        <v>0.9005516892214924</v>
+        <v>0.9005516892214912</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8324687729356499</v>
+        <v>0.8324687729356508</v>
       </c>
       <c r="D12">
-        <v>0.9764361551896681</v>
+        <v>0.9764361551896679</v>
       </c>
       <c r="E12">
-        <v>0.8599748399544451</v>
+        <v>0.8599748399544455</v>
       </c>
       <c r="F12">
-        <v>0.8773859746129198</v>
+        <v>0.87738597461292</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.015052103062024</v>
       </c>
       <c r="J12">
-        <v>0.8715533190125042</v>
+        <v>0.8715533190125044</v>
       </c>
       <c r="K12">
-        <v>0.9920291671975607</v>
+        <v>0.9920291671975606</v>
       </c>
       <c r="L12">
-        <v>0.878385825743154</v>
+        <v>0.8783858257431544</v>
       </c>
       <c r="M12">
-        <v>0.8953108356749716</v>
+        <v>0.8953108356749717</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8339617630817561</v>
+        <v>0.8339617630817571</v>
       </c>
       <c r="D13">
-        <v>0.9770147328898638</v>
+        <v>0.9770147328898637</v>
       </c>
       <c r="E13">
-        <v>0.8612458582535599</v>
+        <v>0.861245858253561</v>
       </c>
       <c r="F13">
-        <v>0.8786155593879954</v>
+        <v>0.8786155593879963</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015402123224424</v>
       </c>
       <c r="J13">
-        <v>0.8728117266702808</v>
+        <v>0.8728117266702817</v>
       </c>
       <c r="K13">
-        <v>0.9925503874983072</v>
+        <v>0.992550387498307</v>
       </c>
       <c r="L13">
-        <v>0.8795652391416888</v>
+        <v>0.8795652391416897</v>
       </c>
       <c r="M13">
-        <v>0.8964535663166797</v>
+        <v>0.8964535663166805</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8387539881486346</v>
+        <v>0.8387539881486334</v>
       </c>
       <c r="D14">
-        <v>0.9788786085350457</v>
+        <v>0.9788786085350454</v>
       </c>
       <c r="E14">
-        <v>0.865327859387517</v>
+        <v>0.8653278593875161</v>
       </c>
       <c r="F14">
-        <v>0.8825686513635688</v>
+        <v>0.882568651363568</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.016527471620541</v>
       </c>
       <c r="J14">
-        <v>0.8768523120213463</v>
+        <v>0.8768523120213453</v>
       </c>
       <c r="K14">
-        <v>0.9942276551435724</v>
+        <v>0.9942276551435719</v>
       </c>
       <c r="L14">
-        <v>0.8833522333512084</v>
+        <v>0.8833522333512075</v>
       </c>
       <c r="M14">
-        <v>0.9001266116056222</v>
+        <v>0.9001266116056215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8416344182299608</v>
+        <v>0.8416344182299609</v>
       </c>
       <c r="D15">
-        <v>0.9800038169652845</v>
+        <v>0.9800038169652852</v>
       </c>
       <c r="E15">
-        <v>0.8677830297079359</v>
+        <v>0.8677830297079361</v>
       </c>
       <c r="F15">
-        <v>0.8849493097264043</v>
+        <v>0.884949309726405</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.017205186613522</v>
       </c>
       <c r="J15">
-        <v>0.8792818986381922</v>
+        <v>0.8792818986381926</v>
       </c>
       <c r="K15">
-        <v>0.9952388603295282</v>
+        <v>0.9952388603295288</v>
       </c>
       <c r="L15">
-        <v>0.8856293657349752</v>
+        <v>0.8856293657349754</v>
       </c>
       <c r="M15">
-        <v>0.9023380174282857</v>
+        <v>0.9023380174282862</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8574385395891777</v>
+        <v>0.8574385395891763</v>
       </c>
       <c r="D16">
-        <v>0.9862412990398476</v>
+        <v>0.9862412990398475</v>
       </c>
       <c r="E16">
-        <v>0.8812745631816473</v>
+        <v>0.8812745631816461</v>
       </c>
       <c r="F16">
-        <v>0.8980708251058098</v>
+        <v>0.8980708251058088</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020939478789264</v>
       </c>
       <c r="J16">
-        <v>0.8926237444581111</v>
+        <v>0.8926237444581097</v>
       </c>
       <c r="K16">
         <v>1.000826072423347</v>
       </c>
       <c r="L16">
-        <v>0.8981341696155966</v>
+        <v>0.8981341696155954</v>
       </c>
       <c r="M16">
-        <v>0.9145184200696187</v>
+        <v>0.9145184200696178</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8666290483440392</v>
+        <v>0.8666290483440373</v>
       </c>
       <c r="D17">
-        <v>0.9899165510498648</v>
+        <v>0.9899165510498639</v>
       </c>
       <c r="E17">
-        <v>0.8891353691821773</v>
+        <v>0.8891353691821756</v>
       </c>
       <c r="F17">
-        <v>0.9057458657958763</v>
+        <v>0.9057458657958749</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023121817353245</v>
+        <v>1.023121817353244</v>
       </c>
       <c r="J17">
-        <v>0.9003901345702787</v>
+        <v>0.9003901345702767</v>
       </c>
       <c r="K17">
-        <v>1.004103720158548</v>
+        <v>1.004103720158547</v>
       </c>
       <c r="L17">
-        <v>0.9054132030910582</v>
+        <v>0.9054132030910566</v>
       </c>
       <c r="M17">
-        <v>0.9216363581174399</v>
+        <v>0.9216363581174386</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8717687056126262</v>
+        <v>0.8717687056126253</v>
       </c>
       <c r="D18">
-        <v>0.9919866950996251</v>
+        <v>0.9919866950996242</v>
       </c>
       <c r="E18">
-        <v>0.8935359316800615</v>
+        <v>0.893535931680061</v>
       </c>
       <c r="F18">
-        <v>0.9100517133177002</v>
+        <v>0.9100517133176992</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.024345127521092</v>
       </c>
       <c r="J18">
-        <v>0.9047354798950669</v>
+        <v>0.904735479895066</v>
       </c>
       <c r="K18">
         <v>1.005945197234449</v>
       </c>
       <c r="L18">
-        <v>0.9094857579583698</v>
+        <v>0.9094857579583692</v>
       </c>
       <c r="M18">
-        <v>0.9256274497523702</v>
+        <v>0.9256274497523693</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8734867755177196</v>
+        <v>0.8734867755177181</v>
       </c>
       <c r="D19">
-        <v>0.992681016372628</v>
+        <v>0.9926810163726272</v>
       </c>
       <c r="E19">
-        <v>0.8950076351321323</v>
+        <v>0.8950076351321308</v>
       </c>
       <c r="F19">
-        <v>0.9114932018969524</v>
+        <v>0.9114932018969509</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024754459444103</v>
+        <v>1.024754459444102</v>
       </c>
       <c r="J19">
-        <v>0.906188333326567</v>
+        <v>0.9061883333265656</v>
       </c>
       <c r="K19">
-        <v>1.006562063360729</v>
+        <v>1.006562063360728</v>
       </c>
       <c r="L19">
-        <v>0.9108473803742191</v>
+        <v>0.9108473803742179</v>
       </c>
       <c r="M19">
-        <v>0.9269632040971683</v>
+        <v>0.9269632040971666</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,19 +1102,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8656666187150907</v>
+        <v>0.8656666187150902</v>
       </c>
       <c r="D20">
-        <v>0.9895300733963547</v>
+        <v>0.989530073396355</v>
       </c>
       <c r="E20">
-        <v>0.8883116927387468</v>
+        <v>0.8883116927387462</v>
       </c>
       <c r="F20">
-        <v>0.9049406511529197</v>
+        <v>0.9049406511529196</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022892961415372</v>
       </c>
       <c r="J20">
-        <v>0.8995766037987273</v>
+        <v>0.8995766037987268</v>
       </c>
       <c r="K20">
         <v>1.003759556545167</v>
       </c>
       <c r="L20">
-        <v>0.9046507333112429</v>
+        <v>0.9046507333112421</v>
       </c>
       <c r="M20">
-        <v>0.9208898263291985</v>
+        <v>0.9208898263291982</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8373582302207269</v>
+        <v>0.8373582302207259</v>
       </c>
       <c r="D21">
-        <v>0.9783346897364942</v>
+        <v>0.9783346897364936</v>
       </c>
       <c r="E21">
-        <v>0.8641386047039991</v>
+        <v>0.8641386047039979</v>
       </c>
       <c r="F21">
-        <v>0.8814163022205854</v>
+        <v>0.8814163022205848</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01619942309212</v>
       </c>
       <c r="J21">
-        <v>0.8756752677137033</v>
+        <v>0.8756752677137025</v>
       </c>
       <c r="K21">
-        <v>0.993738481006357</v>
+        <v>0.9937384810063563</v>
       </c>
       <c r="L21">
-        <v>0.8822490545729296</v>
+        <v>0.8822490545729285</v>
       </c>
       <c r="M21">
-        <v>0.8990560259825197</v>
+        <v>0.899056025982519</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8165006252377356</v>
+        <v>0.8165006252377371</v>
       </c>
       <c r="D22">
-        <v>0.970311973625276</v>
+        <v>0.9703119736252768</v>
       </c>
       <c r="E22">
-        <v>0.8464027535719332</v>
+        <v>0.8464027535719344</v>
       </c>
       <c r="F22">
-        <v>0.8642956945175915</v>
+        <v>0.8642956945175926</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011326969912267</v>
+        <v>1.011326969912268</v>
       </c>
       <c r="J22">
-        <v>0.8581074640114731</v>
+        <v>0.8581074640114745</v>
       </c>
       <c r="K22">
-        <v>0.9864954249277392</v>
+        <v>0.9864954249277399</v>
       </c>
       <c r="L22">
-        <v>0.8657846863368104</v>
+        <v>0.8657846863368115</v>
       </c>
       <c r="M22">
-        <v>0.8831378491865423</v>
+        <v>0.8831378491865437</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.827922013913413</v>
+        <v>0.8279220139134127</v>
       </c>
       <c r="D23">
-        <v>0.9746803753495689</v>
+        <v>0.9746803753495692</v>
       </c>
       <c r="E23">
-        <v>0.8561061881375998</v>
+        <v>0.8561061881375994</v>
       </c>
       <c r="F23">
-        <v>0.8736472687781965</v>
+        <v>0.8736472687781964</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.013987901452759</v>
       </c>
       <c r="J23">
-        <v>0.8677222188819401</v>
+        <v>0.8677222188819399</v>
       </c>
       <c r="K23">
-        <v>0.9904457900212653</v>
+        <v>0.9904457900212655</v>
       </c>
       <c r="L23">
-        <v>0.8747952714099357</v>
+        <v>0.8747952714099354</v>
       </c>
       <c r="M23">
-        <v>0.8918354880332739</v>
+        <v>0.8918354880332738</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.866102172956621</v>
+        <v>0.8661021729566194</v>
       </c>
       <c r="D24">
-        <v>0.9897049305521686</v>
+        <v>0.9897049305521678</v>
       </c>
       <c r="E24">
-        <v>0.8886844392554253</v>
+        <v>0.888684439255424</v>
       </c>
       <c r="F24">
-        <v>0.9053050141444785</v>
+        <v>0.9053050141444774</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022996522980012</v>
+        <v>1.022996522980011</v>
       </c>
       <c r="J24">
-        <v>0.8999447663646896</v>
+        <v>0.8999447663646881</v>
       </c>
       <c r="K24">
-        <v>1.003915283875663</v>
+        <v>1.003915283875662</v>
       </c>
       <c r="L24">
-        <v>0.9049957886415489</v>
+        <v>0.9049957886415476</v>
       </c>
       <c r="M24">
-        <v>0.921227641984908</v>
+        <v>0.9212276419849066</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9017468027852502</v>
+        <v>0.9017468027852513</v>
       </c>
       <c r="D25">
         <v>1.00426025705488</v>
       </c>
       <c r="E25">
-        <v>0.9192611024151425</v>
+        <v>0.9192611024151436</v>
       </c>
       <c r="F25">
-        <v>0.9353505727460268</v>
+        <v>0.9353505727460276</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031507949755162</v>
       </c>
       <c r="J25">
-        <v>0.9301024120660664</v>
+        <v>0.9301024120660674</v>
       </c>
       <c r="K25">
         <v>1.016792796059986</v>
       </c>
       <c r="L25">
-        <v>0.9332570011501296</v>
+        <v>0.9332570011501305</v>
       </c>
       <c r="M25">
-        <v>0.9490428770611067</v>
+        <v>0.9490428770611073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9259439267844908</v>
+        <v>0.9259439267844909</v>
       </c>
       <c r="D2">
         <v>1.014392069845986</v>
       </c>
       <c r="E2">
-        <v>0.9400868912252142</v>
+        <v>0.9400868912252143</v>
       </c>
       <c r="F2">
         <v>0.9559819053822265</v>
@@ -445,7 +445,7 @@
         <v>1.025654476425044</v>
       </c>
       <c r="L2">
-        <v>0.9524492158041062</v>
+        <v>0.9524492158041065</v>
       </c>
       <c r="M2">
         <v>0.968090564232795</v>
@@ -465,10 +465,10 @@
         <v>1.02112249551749</v>
       </c>
       <c r="E3">
-        <v>0.953750222174886</v>
+        <v>0.9537502221748864</v>
       </c>
       <c r="F3">
-        <v>0.9695866229776757</v>
+        <v>0.9695866229776761</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041078419135882</v>
       </c>
       <c r="J3">
-        <v>0.9640054751860415</v>
+        <v>0.9640054751860416</v>
       </c>
       <c r="K3">
         <v>1.031492059371291</v>
       </c>
       <c r="L3">
-        <v>0.9650112004395248</v>
+        <v>0.9650112004395252</v>
       </c>
       <c r="M3">
-        <v>0.9806240295598148</v>
+        <v>0.9806240295598152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9514074526164522</v>
+        <v>0.9514074526164504</v>
       </c>
       <c r="D4">
         <v>1.025238436986748</v>
       </c>
       <c r="E4">
-        <v>0.9620481442991182</v>
+        <v>0.9620481442991162</v>
       </c>
       <c r="F4">
-        <v>0.9778746479966151</v>
+        <v>0.9778746479966137</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043361524634224</v>
       </c>
       <c r="J4">
-        <v>0.9721414893774249</v>
+        <v>0.9721414893774234</v>
       </c>
       <c r="K4">
         <v>1.035041507718888</v>
       </c>
       <c r="L4">
-        <v>0.9726272752635324</v>
+        <v>0.9726272752635308</v>
       </c>
       <c r="M4">
-        <v>0.9882476509562602</v>
+        <v>0.9882476509562591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9553152664258496</v>
+        <v>0.9553152664258482</v>
       </c>
       <c r="D5">
-        <v>1.02691744503096</v>
+        <v>1.026917445030961</v>
       </c>
       <c r="E5">
-        <v>0.9654217494810111</v>
+        <v>0.9654217494810101</v>
       </c>
       <c r="F5">
-        <v>0.9812496756937857</v>
+        <v>0.981249675693785</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044286299716895</v>
+        <v>1.044286299716894</v>
       </c>
       <c r="J5">
-        <v>0.9754466597387821</v>
+        <v>0.9754466597387809</v>
       </c>
       <c r="K5">
         <v>1.036484765452351</v>
       </c>
       <c r="L5">
-        <v>0.9757206296255275</v>
+        <v>0.9757206296255265</v>
       </c>
       <c r="M5">
-        <v>0.9913493631837084</v>
+        <v>0.9913493631837077</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9559639690725135</v>
+        <v>0.9559639690725119</v>
       </c>
       <c r="D6">
-        <v>1.027196498471802</v>
+        <v>1.027196498471801</v>
       </c>
       <c r="E6">
-        <v>0.9659818443396688</v>
+        <v>0.9659818443396673</v>
       </c>
       <c r="F6">
-        <v>0.9818103088586274</v>
+        <v>0.9818103088586262</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044439618510479</v>
       </c>
       <c r="J6">
-        <v>0.9759952415528823</v>
+        <v>0.9759952415528809</v>
       </c>
       <c r="K6">
         <v>1.036724368830902</v>
       </c>
       <c r="L6">
-        <v>0.9762340195097242</v>
+        <v>0.9762340195097226</v>
       </c>
       <c r="M6">
-        <v>0.9918644346472104</v>
+        <v>0.9918644346472093</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9514601769148477</v>
+        <v>0.9514601769148497</v>
       </c>
       <c r="D7">
-        <v>1.025261066714738</v>
+        <v>1.025261066714739</v>
       </c>
       <c r="E7">
-        <v>0.9620936559865132</v>
+        <v>0.962093655986515</v>
       </c>
       <c r="F7">
-        <v>0.9779201580482559</v>
+        <v>0.9779201580482575</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043374014602368</v>
+        <v>1.043374014602369</v>
       </c>
       <c r="J7">
-        <v>0.9721860881256706</v>
+        <v>0.9721860881256723</v>
       </c>
       <c r="K7">
-        <v>1.035060978240675</v>
+        <v>1.035060978240676</v>
       </c>
       <c r="L7">
-        <v>0.9726690182323913</v>
+        <v>0.9726690182323928</v>
       </c>
       <c r="M7">
-        <v>0.9882894864244061</v>
+        <v>0.9882894864244076</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9314441984720364</v>
+        <v>0.9314441984720379</v>
       </c>
       <c r="D8">
-        <v>1.016720105336182</v>
+        <v>1.016720105336183</v>
       </c>
       <c r="E8">
-        <v>0.9448271485840642</v>
+        <v>0.9448271485840658</v>
       </c>
       <c r="F8">
-        <v>0.9606957791909514</v>
+        <v>0.9606957791909527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038612275435538</v>
+        <v>1.038612275435539</v>
       </c>
       <c r="J8">
-        <v>0.9552468887280312</v>
+        <v>0.9552468887280328</v>
       </c>
       <c r="K8">
         <v>1.027678256755883</v>
       </c>
       <c r="L8">
-        <v>0.9568102366526803</v>
+        <v>0.9568102366526817</v>
       </c>
       <c r="M8">
-        <v>0.9724358530820616</v>
+        <v>0.9724358530820628</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8901849346771989</v>
+        <v>0.8901849346771981</v>
       </c>
       <c r="D9">
-        <v>0.9994877798010545</v>
+        <v>0.9994877798010534</v>
       </c>
       <c r="E9">
-        <v>0.9093284635139482</v>
+        <v>0.9093284635139478</v>
       </c>
       <c r="F9">
-        <v>0.9255573484080165</v>
+        <v>0.9255573484080156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028741351447635</v>
+        <v>1.028741351447634</v>
       </c>
       <c r="J9">
-        <v>0.9203154608541041</v>
+        <v>0.9203154608541034</v>
       </c>
       <c r="K9">
-        <v>1.012589172890755</v>
+        <v>1.012589172890754</v>
       </c>
       <c r="L9">
-        <v>0.9240865169409346</v>
+        <v>0.9240865169409342</v>
       </c>
       <c r="M9">
-        <v>0.9399858927720703</v>
+        <v>0.9399858927720695</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8563674168329696</v>
+        <v>0.8563674168329678</v>
       </c>
       <c r="D10">
-        <v>0.9858152158110136</v>
+        <v>0.9858152158110132</v>
       </c>
       <c r="E10">
-        <v>0.880359112396911</v>
+        <v>0.8803591123969091</v>
       </c>
       <c r="F10">
-        <v>0.8971784126206424</v>
+        <v>0.8971784126206414</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.020685607839548</v>
       </c>
       <c r="J10">
-        <v>0.8917189414330313</v>
+        <v>0.8917189414330295</v>
       </c>
       <c r="K10">
         <v>1.000445392589714</v>
       </c>
       <c r="L10">
-        <v>0.8972861340408504</v>
+        <v>0.8972861340408489</v>
       </c>
       <c r="M10">
-        <v>0.9136904625295562</v>
+        <v>0.913690462529555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8393079423132978</v>
+        <v>0.8393079423132995</v>
       </c>
       <c r="D11">
-        <v>0.9790947205221135</v>
+        <v>0.9790947205221147</v>
       </c>
       <c r="E11">
-        <v>0.8657999351506512</v>
+        <v>0.8657999351506529</v>
       </c>
       <c r="F11">
-        <v>0.8830262249225573</v>
+        <v>0.8830262249225584</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016657732607232</v>
+        <v>1.016657732607233</v>
       </c>
       <c r="J11">
-        <v>0.8773195079398814</v>
+        <v>0.8773195079398831</v>
       </c>
       <c r="K11">
-        <v>0.9944219498943985</v>
+        <v>0.9944219498943996</v>
       </c>
       <c r="L11">
-        <v>0.88379011172249</v>
+        <v>0.8837901117224914</v>
       </c>
       <c r="M11">
-        <v>0.9005516892214912</v>
+        <v>0.9005516892214924</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8324687729356508</v>
+        <v>0.8324687729356499</v>
       </c>
       <c r="D12">
-        <v>0.9764361551896679</v>
+        <v>0.9764361551896681</v>
       </c>
       <c r="E12">
-        <v>0.8599748399544455</v>
+        <v>0.8599748399544451</v>
       </c>
       <c r="F12">
-        <v>0.87738597461292</v>
+        <v>0.8773859746129198</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.015052103062024</v>
       </c>
       <c r="J12">
-        <v>0.8715533190125044</v>
+        <v>0.8715533190125042</v>
       </c>
       <c r="K12">
-        <v>0.9920291671975606</v>
+        <v>0.9920291671975607</v>
       </c>
       <c r="L12">
-        <v>0.8783858257431544</v>
+        <v>0.878385825743154</v>
       </c>
       <c r="M12">
-        <v>0.8953108356749717</v>
+        <v>0.8953108356749716</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8339617630817571</v>
+        <v>0.8339617630817561</v>
       </c>
       <c r="D13">
-        <v>0.9770147328898637</v>
+        <v>0.9770147328898638</v>
       </c>
       <c r="E13">
-        <v>0.861245858253561</v>
+        <v>0.8612458582535599</v>
       </c>
       <c r="F13">
-        <v>0.8786155593879963</v>
+        <v>0.8786155593879954</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.015402123224424</v>
       </c>
       <c r="J13">
-        <v>0.8728117266702817</v>
+        <v>0.8728117266702808</v>
       </c>
       <c r="K13">
-        <v>0.992550387498307</v>
+        <v>0.9925503874983072</v>
       </c>
       <c r="L13">
-        <v>0.8795652391416897</v>
+        <v>0.8795652391416888</v>
       </c>
       <c r="M13">
-        <v>0.8964535663166805</v>
+        <v>0.8964535663166797</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8387539881486334</v>
+        <v>0.8387539881486346</v>
       </c>
       <c r="D14">
-        <v>0.9788786085350454</v>
+        <v>0.9788786085350457</v>
       </c>
       <c r="E14">
-        <v>0.8653278593875161</v>
+        <v>0.865327859387517</v>
       </c>
       <c r="F14">
-        <v>0.882568651363568</v>
+        <v>0.8825686513635688</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.016527471620541</v>
       </c>
       <c r="J14">
-        <v>0.8768523120213453</v>
+        <v>0.8768523120213463</v>
       </c>
       <c r="K14">
-        <v>0.9942276551435719</v>
+        <v>0.9942276551435724</v>
       </c>
       <c r="L14">
-        <v>0.8833522333512075</v>
+        <v>0.8833522333512084</v>
       </c>
       <c r="M14">
-        <v>0.9001266116056215</v>
+        <v>0.9001266116056222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8416344182299609</v>
+        <v>0.8416344182299608</v>
       </c>
       <c r="D15">
-        <v>0.9800038169652852</v>
+        <v>0.9800038169652845</v>
       </c>
       <c r="E15">
-        <v>0.8677830297079361</v>
+        <v>0.8677830297079359</v>
       </c>
       <c r="F15">
-        <v>0.884949309726405</v>
+        <v>0.8849493097264043</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.017205186613522</v>
       </c>
       <c r="J15">
-        <v>0.8792818986381926</v>
+        <v>0.8792818986381922</v>
       </c>
       <c r="K15">
-        <v>0.9952388603295288</v>
+        <v>0.9952388603295282</v>
       </c>
       <c r="L15">
-        <v>0.8856293657349754</v>
+        <v>0.8856293657349752</v>
       </c>
       <c r="M15">
-        <v>0.9023380174282862</v>
+        <v>0.9023380174282857</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8574385395891763</v>
+        <v>0.8574385395891777</v>
       </c>
       <c r="D16">
-        <v>0.9862412990398475</v>
+        <v>0.9862412990398476</v>
       </c>
       <c r="E16">
-        <v>0.8812745631816461</v>
+        <v>0.8812745631816473</v>
       </c>
       <c r="F16">
-        <v>0.8980708251058088</v>
+        <v>0.8980708251058098</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.020939478789264</v>
       </c>
       <c r="J16">
-        <v>0.8926237444581097</v>
+        <v>0.8926237444581111</v>
       </c>
       <c r="K16">
         <v>1.000826072423347</v>
       </c>
       <c r="L16">
-        <v>0.8981341696155954</v>
+        <v>0.8981341696155966</v>
       </c>
       <c r="M16">
-        <v>0.9145184200696178</v>
+        <v>0.9145184200696187</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8666290483440373</v>
+        <v>0.8666290483440392</v>
       </c>
       <c r="D17">
-        <v>0.9899165510498639</v>
+        <v>0.9899165510498648</v>
       </c>
       <c r="E17">
-        <v>0.8891353691821756</v>
+        <v>0.8891353691821773</v>
       </c>
       <c r="F17">
-        <v>0.9057458657958749</v>
+        <v>0.9057458657958763</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023121817353244</v>
+        <v>1.023121817353245</v>
       </c>
       <c r="J17">
-        <v>0.9003901345702767</v>
+        <v>0.9003901345702787</v>
       </c>
       <c r="K17">
-        <v>1.004103720158547</v>
+        <v>1.004103720158548</v>
       </c>
       <c r="L17">
-        <v>0.9054132030910566</v>
+        <v>0.9054132030910582</v>
       </c>
       <c r="M17">
-        <v>0.9216363581174386</v>
+        <v>0.9216363581174399</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8717687056126253</v>
+        <v>0.8717687056126262</v>
       </c>
       <c r="D18">
-        <v>0.9919866950996242</v>
+        <v>0.9919866950996251</v>
       </c>
       <c r="E18">
-        <v>0.893535931680061</v>
+        <v>0.8935359316800615</v>
       </c>
       <c r="F18">
-        <v>0.9100517133176992</v>
+        <v>0.9100517133177002</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.024345127521092</v>
       </c>
       <c r="J18">
-        <v>0.904735479895066</v>
+        <v>0.9047354798950669</v>
       </c>
       <c r="K18">
         <v>1.005945197234449</v>
       </c>
       <c r="L18">
-        <v>0.9094857579583692</v>
+        <v>0.9094857579583698</v>
       </c>
       <c r="M18">
-        <v>0.9256274497523693</v>
+        <v>0.9256274497523702</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8734867755177181</v>
+        <v>0.8734867755177196</v>
       </c>
       <c r="D19">
-        <v>0.9926810163726272</v>
+        <v>0.992681016372628</v>
       </c>
       <c r="E19">
-        <v>0.8950076351321308</v>
+        <v>0.8950076351321323</v>
       </c>
       <c r="F19">
-        <v>0.9114932018969509</v>
+        <v>0.9114932018969524</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024754459444102</v>
+        <v>1.024754459444103</v>
       </c>
       <c r="J19">
-        <v>0.9061883333265656</v>
+        <v>0.906188333326567</v>
       </c>
       <c r="K19">
-        <v>1.006562063360728</v>
+        <v>1.006562063360729</v>
       </c>
       <c r="L19">
-        <v>0.9108473803742179</v>
+        <v>0.9108473803742191</v>
       </c>
       <c r="M19">
-        <v>0.9269632040971666</v>
+        <v>0.9269632040971683</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,19 +1102,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.8656666187150902</v>
+        <v>0.8656666187150907</v>
       </c>
       <c r="D20">
-        <v>0.989530073396355</v>
+        <v>0.9895300733963547</v>
       </c>
       <c r="E20">
-        <v>0.8883116927387462</v>
+        <v>0.8883116927387468</v>
       </c>
       <c r="F20">
-        <v>0.9049406511529196</v>
+        <v>0.9049406511529197</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022892961415372</v>
       </c>
       <c r="J20">
-        <v>0.8995766037987268</v>
+        <v>0.8995766037987273</v>
       </c>
       <c r="K20">
         <v>1.003759556545167</v>
       </c>
       <c r="L20">
-        <v>0.9046507333112421</v>
+        <v>0.9046507333112429</v>
       </c>
       <c r="M20">
-        <v>0.9208898263291982</v>
+        <v>0.9208898263291985</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8373582302207259</v>
+        <v>0.8373582302207269</v>
       </c>
       <c r="D21">
-        <v>0.9783346897364936</v>
+        <v>0.9783346897364942</v>
       </c>
       <c r="E21">
-        <v>0.8641386047039979</v>
+        <v>0.8641386047039991</v>
       </c>
       <c r="F21">
-        <v>0.8814163022205848</v>
+        <v>0.8814163022205854</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.01619942309212</v>
       </c>
       <c r="J21">
-        <v>0.8756752677137025</v>
+        <v>0.8756752677137033</v>
       </c>
       <c r="K21">
-        <v>0.9937384810063563</v>
+        <v>0.993738481006357</v>
       </c>
       <c r="L21">
-        <v>0.8822490545729285</v>
+        <v>0.8822490545729296</v>
       </c>
       <c r="M21">
-        <v>0.899056025982519</v>
+        <v>0.8990560259825197</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8165006252377371</v>
+        <v>0.8165006252377356</v>
       </c>
       <c r="D22">
-        <v>0.9703119736252768</v>
+        <v>0.970311973625276</v>
       </c>
       <c r="E22">
-        <v>0.8464027535719344</v>
+        <v>0.8464027535719332</v>
       </c>
       <c r="F22">
-        <v>0.8642956945175926</v>
+        <v>0.8642956945175915</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011326969912268</v>
+        <v>1.011326969912267</v>
       </c>
       <c r="J22">
-        <v>0.8581074640114745</v>
+        <v>0.8581074640114731</v>
       </c>
       <c r="K22">
-        <v>0.9864954249277399</v>
+        <v>0.9864954249277392</v>
       </c>
       <c r="L22">
-        <v>0.8657846863368115</v>
+        <v>0.8657846863368104</v>
       </c>
       <c r="M22">
-        <v>0.8831378491865437</v>
+        <v>0.8831378491865423</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8279220139134127</v>
+        <v>0.827922013913413</v>
       </c>
       <c r="D23">
-        <v>0.9746803753495692</v>
+        <v>0.9746803753495689</v>
       </c>
       <c r="E23">
-        <v>0.8561061881375994</v>
+        <v>0.8561061881375998</v>
       </c>
       <c r="F23">
-        <v>0.8736472687781964</v>
+        <v>0.8736472687781965</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.013987901452759</v>
       </c>
       <c r="J23">
-        <v>0.8677222188819399</v>
+        <v>0.8677222188819401</v>
       </c>
       <c r="K23">
-        <v>0.9904457900212655</v>
+        <v>0.9904457900212653</v>
       </c>
       <c r="L23">
-        <v>0.8747952714099354</v>
+        <v>0.8747952714099357</v>
       </c>
       <c r="M23">
-        <v>0.8918354880332738</v>
+        <v>0.8918354880332739</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8661021729566194</v>
+        <v>0.866102172956621</v>
       </c>
       <c r="D24">
-        <v>0.9897049305521678</v>
+        <v>0.9897049305521686</v>
       </c>
       <c r="E24">
-        <v>0.888684439255424</v>
+        <v>0.8886844392554253</v>
       </c>
       <c r="F24">
-        <v>0.9053050141444774</v>
+        <v>0.9053050141444785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022996522980011</v>
+        <v>1.022996522980012</v>
       </c>
       <c r="J24">
-        <v>0.8999447663646881</v>
+        <v>0.8999447663646896</v>
       </c>
       <c r="K24">
-        <v>1.003915283875662</v>
+        <v>1.003915283875663</v>
       </c>
       <c r="L24">
-        <v>0.9049957886415476</v>
+        <v>0.9049957886415489</v>
       </c>
       <c r="M24">
-        <v>0.9212276419849066</v>
+        <v>0.921227641984908</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9017468027852513</v>
+        <v>0.9017468027852502</v>
       </c>
       <c r="D25">
         <v>1.00426025705488</v>
       </c>
       <c r="E25">
-        <v>0.9192611024151436</v>
+        <v>0.9192611024151425</v>
       </c>
       <c r="F25">
-        <v>0.9353505727460276</v>
+        <v>0.9353505727460268</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031507949755162</v>
       </c>
       <c r="J25">
-        <v>0.9301024120660674</v>
+        <v>0.9301024120660664</v>
       </c>
       <c r="K25">
         <v>1.016792796059986</v>
       </c>
       <c r="L25">
-        <v>0.9332570011501305</v>
+        <v>0.9332570011501296</v>
       </c>
       <c r="M25">
-        <v>0.9490428770611073</v>
+        <v>0.9490428770611067</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9259439267844909</v>
+        <v>0.9303174887098128</v>
       </c>
       <c r="D2">
-        <v>1.014392069845986</v>
+        <v>1.015646206200953</v>
       </c>
       <c r="E2">
-        <v>0.9400868912252143</v>
+        <v>0.9438524553816215</v>
       </c>
       <c r="F2">
-        <v>0.9559819053822265</v>
+        <v>0.959052435101988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037298518165396</v>
+        <v>1.038207952668091</v>
       </c>
       <c r="J2">
-        <v>0.9505901847665683</v>
+        <v>0.954802782724145</v>
       </c>
       <c r="K2">
-        <v>1.025654476425044</v>
+        <v>1.026891784473157</v>
       </c>
       <c r="L2">
-        <v>0.9524492158041065</v>
+        <v>0.9561536948716166</v>
       </c>
       <c r="M2">
-        <v>0.968090564232795</v>
+        <v>0.9711133298980384</v>
+      </c>
+      <c r="N2">
+        <v>0.9561587121930232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9417915995738603</v>
+        <v>0.946079028983761</v>
       </c>
       <c r="D3">
-        <v>1.02112249551749</v>
+        <v>1.0223486895942</v>
       </c>
       <c r="E3">
-        <v>0.9537502221748864</v>
+        <v>0.9574468099210682</v>
       </c>
       <c r="F3">
-        <v>0.9695866229776761</v>
+        <v>0.972589414073692</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041078419135882</v>
+        <v>1.041970480891071</v>
       </c>
       <c r="J3">
-        <v>0.9640054751860416</v>
+        <v>0.9681559516362901</v>
       </c>
       <c r="K3">
-        <v>1.031492059371291</v>
+        <v>1.0327033826149</v>
       </c>
       <c r="L3">
-        <v>0.9650112004395252</v>
+        <v>0.9686547640170238</v>
       </c>
       <c r="M3">
-        <v>0.9806240295598152</v>
+        <v>0.9835854631393917</v>
+      </c>
+      <c r="N3">
+        <v>0.9695308441366536</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9514074526164504</v>
+        <v>0.9556493028929527</v>
       </c>
       <c r="D4">
-        <v>1.025238436986748</v>
+        <v>1.026449655761034</v>
       </c>
       <c r="E4">
-        <v>0.9620481442991162</v>
+        <v>0.9657083848592113</v>
       </c>
       <c r="F4">
-        <v>0.9778746479966137</v>
+        <v>0.9808411952407203</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043361524634224</v>
+        <v>1.044244429785804</v>
       </c>
       <c r="J4">
-        <v>0.9721414893774234</v>
+        <v>0.976259815615474</v>
       </c>
       <c r="K4">
-        <v>1.035041507718888</v>
+        <v>1.036239002477569</v>
       </c>
       <c r="L4">
-        <v>0.9726272752635308</v>
+        <v>0.9762390910516111</v>
       </c>
       <c r="M4">
-        <v>0.9882476509562591</v>
+        <v>0.9911764855491684</v>
+      </c>
+      <c r="N4">
+        <v>0.9776462165322141</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9553152664258482</v>
+        <v>0.9595399249644208</v>
       </c>
       <c r="D5">
-        <v>1.026917445030961</v>
+        <v>1.028122976664648</v>
       </c>
       <c r="E5">
-        <v>0.9654217494810101</v>
+        <v>0.9690683191471763</v>
       </c>
       <c r="F5">
-        <v>0.981249675693785</v>
+        <v>0.9842024653164262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044286299716894</v>
+        <v>1.045165763455803</v>
       </c>
       <c r="J5">
-        <v>0.9754466597387809</v>
+        <v>0.9795530286939271</v>
       </c>
       <c r="K5">
-        <v>1.036484765452351</v>
+        <v>1.037677031380379</v>
       </c>
       <c r="L5">
-        <v>0.9757206296255265</v>
+        <v>0.9793205872278139</v>
       </c>
       <c r="M5">
-        <v>0.9913493631837077</v>
+        <v>0.9942658742844449</v>
+      </c>
+      <c r="N5">
+        <v>0.9809441063509754</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9559639690725119</v>
+        <v>0.9601858455665295</v>
       </c>
       <c r="D6">
-        <v>1.027196498471801</v>
+        <v>1.028401107669767</v>
       </c>
       <c r="E6">
-        <v>0.9659818443396673</v>
+        <v>0.9696262040715461</v>
       </c>
       <c r="F6">
-        <v>0.9818103088586262</v>
+        <v>0.9847608672166596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044439618510479</v>
+        <v>1.045318526176475</v>
       </c>
       <c r="J6">
-        <v>0.9759952415528809</v>
+        <v>0.9800996854827118</v>
       </c>
       <c r="K6">
-        <v>1.036724368830902</v>
+        <v>1.037915787996995</v>
       </c>
       <c r="L6">
-        <v>0.9762340195097226</v>
+        <v>0.9798320650932982</v>
       </c>
       <c r="M6">
-        <v>0.9918644346472093</v>
+        <v>0.9947789500444828</v>
+      </c>
+      <c r="N6">
+        <v>0.9814915394551024</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9514601769148497</v>
+        <v>0.9557017902465488</v>
       </c>
       <c r="D7">
-        <v>1.025261066714739</v>
+        <v>1.026472207256323</v>
       </c>
       <c r="E7">
-        <v>0.962093655986515</v>
+        <v>0.9657537079665478</v>
       </c>
       <c r="F7">
-        <v>0.9779201580482575</v>
+        <v>0.9808865160245485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043374014602369</v>
+        <v>1.044256872267531</v>
       </c>
       <c r="J7">
-        <v>0.9721860881256723</v>
+        <v>0.9763042488730191</v>
       </c>
       <c r="K7">
-        <v>1.035060978240676</v>
+        <v>1.036258400978699</v>
       </c>
       <c r="L7">
-        <v>0.9726690182323928</v>
+        <v>0.9762806701069848</v>
       </c>
       <c r="M7">
-        <v>0.9882894864244076</v>
+        <v>0.9912181512738958</v>
+      </c>
+      <c r="N7">
+        <v>0.9776907128900814</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9314441984720379</v>
+        <v>0.9357862234139255</v>
       </c>
       <c r="D8">
-        <v>1.016720105336183</v>
+        <v>1.017964060470704</v>
       </c>
       <c r="E8">
-        <v>0.9448271485840658</v>
+        <v>0.9485674224610643</v>
       </c>
       <c r="F8">
-        <v>0.9606957791909527</v>
+        <v>0.963741607656194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038612275435539</v>
+        <v>1.039515342872749</v>
       </c>
       <c r="J8">
-        <v>0.9552468887280328</v>
+        <v>0.9594365666173816</v>
       </c>
       <c r="K8">
-        <v>1.027678256755883</v>
+        <v>1.02890607332015</v>
       </c>
       <c r="L8">
-        <v>0.9568102366526817</v>
+        <v>0.9604922960676535</v>
       </c>
       <c r="M8">
-        <v>0.9724358530820628</v>
+        <v>0.9754362014436301</v>
+      </c>
+      <c r="N8">
+        <v>0.9607990765908905</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8901849346771981</v>
+        <v>0.8948137865306659</v>
       </c>
       <c r="D9">
-        <v>0.9994877798010534</v>
+        <v>1.000822680668873</v>
       </c>
       <c r="E9">
-        <v>0.9093284635139478</v>
+        <v>0.9132995619936842</v>
       </c>
       <c r="F9">
-        <v>0.9255573484080156</v>
+        <v>0.9288246937915466</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028741351447634</v>
+        <v>1.029702318172822</v>
       </c>
       <c r="J9">
-        <v>0.9203154608541034</v>
+        <v>0.9247184420739932</v>
       </c>
       <c r="K9">
-        <v>1.012589172890754</v>
+        <v>1.013902424539621</v>
       </c>
       <c r="L9">
-        <v>0.9240865169409342</v>
+        <v>0.9279755589088243</v>
       </c>
       <c r="M9">
-        <v>0.9399858927720695</v>
+        <v>0.9431887261808217</v>
+      </c>
+      <c r="N9">
+        <v>0.9260316483284263</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8563674168329678</v>
+        <v>0.8613432099332951</v>
       </c>
       <c r="D10">
-        <v>0.9858152158110132</v>
+        <v>0.9872566431207288</v>
       </c>
       <c r="E10">
-        <v>0.8803591123969091</v>
+        <v>0.8846103952923486</v>
       </c>
       <c r="F10">
-        <v>0.8971784126206414</v>
+        <v>0.9007074051054337</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020685607839548</v>
+        <v>1.021716195639552</v>
       </c>
       <c r="J10">
-        <v>0.8917189414330295</v>
+        <v>0.8963883129716237</v>
       </c>
       <c r="K10">
-        <v>1.000445392589714</v>
+        <v>1.001859858874796</v>
       </c>
       <c r="L10">
-        <v>0.8972861340408489</v>
+        <v>0.9014305176104341</v>
       </c>
       <c r="M10">
-        <v>0.913690462529555</v>
+        <v>0.9171350240830267</v>
+      </c>
+      <c r="N10">
+        <v>0.8976612871932198</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8393079423132995</v>
+        <v>0.8445136170790971</v>
       </c>
       <c r="D11">
-        <v>0.9790947205221147</v>
+        <v>0.9806053980247236</v>
       </c>
       <c r="E11">
-        <v>0.8657999351506529</v>
+        <v>0.8702369533932189</v>
       </c>
       <c r="F11">
-        <v>0.8830262249225584</v>
+        <v>0.886726236150433</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.016657732607233</v>
+        <v>1.017734156696353</v>
       </c>
       <c r="J11">
-        <v>0.8773195079398831</v>
+        <v>0.8821679434398186</v>
       </c>
       <c r="K11">
-        <v>0.9944219498943996</v>
+        <v>0.9959025768844663</v>
       </c>
       <c r="L11">
-        <v>0.8837901117224914</v>
+        <v>0.8881050363455016</v>
       </c>
       <c r="M11">
-        <v>0.9005516892214924</v>
+        <v>0.9041550744041986</v>
+      </c>
+      <c r="N11">
+        <v>0.8834207231055806</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8324687729356499</v>
+        <v>0.8377799171594692</v>
       </c>
       <c r="D12">
-        <v>0.9764361551896681</v>
+        <v>0.9779783414207009</v>
       </c>
       <c r="E12">
-        <v>0.8599748399544451</v>
+        <v>0.864497060435624</v>
       </c>
       <c r="F12">
-        <v>0.8773859746129198</v>
+        <v>0.8811639844376215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015052103062024</v>
+        <v>1.016149487421605</v>
       </c>
       <c r="J12">
-        <v>0.8715533190125042</v>
+        <v>0.8764843545742905</v>
       </c>
       <c r="K12">
-        <v>0.9920291671975607</v>
+        <v>0.9935399627081793</v>
       </c>
       <c r="L12">
-        <v>0.878385825743154</v>
+        <v>0.8827792100502879</v>
       </c>
       <c r="M12">
-        <v>0.8953108356749716</v>
+        <v>0.8989868084171747</v>
+      </c>
+      <c r="N12">
+        <v>0.8777290628919466</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8339617630817561</v>
+        <v>0.8392491606849281</v>
       </c>
       <c r="D13">
-        <v>0.9770147328898638</v>
+        <v>0.9785498376438166</v>
       </c>
       <c r="E13">
-        <v>0.8612458582535599</v>
+        <v>0.8657488964729845</v>
       </c>
       <c r="F13">
-        <v>0.8786155593879954</v>
+        <v>0.8823760303394282</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015402123224424</v>
+        <v>1.016494791884508</v>
       </c>
       <c r="J13">
-        <v>0.8728117266702808</v>
+        <v>0.8777241440270794</v>
       </c>
       <c r="K13">
-        <v>0.9925503874983072</v>
+        <v>0.9940543996567114</v>
       </c>
       <c r="L13">
-        <v>0.8795652391416888</v>
+        <v>0.8839409485195315</v>
       </c>
       <c r="M13">
-        <v>0.8964535663166797</v>
+        <v>0.9001132097578981</v>
+      </c>
+      <c r="N13">
+        <v>0.8789706129879642</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8387539881486346</v>
+        <v>0.8439678978051796</v>
       </c>
       <c r="D14">
-        <v>0.9788786085350457</v>
+        <v>0.9803917516033845</v>
       </c>
       <c r="E14">
-        <v>0.865327859387517</v>
+        <v>0.8697715305325815</v>
       </c>
       <c r="F14">
-        <v>0.8825686513635688</v>
+        <v>0.886274762189456</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016527471620541</v>
+        <v>1.017605533740968</v>
       </c>
       <c r="J14">
-        <v>0.8768523120213463</v>
+        <v>0.8817071879578907</v>
       </c>
       <c r="K14">
-        <v>0.9942276551435724</v>
+        <v>0.9957106415101276</v>
       </c>
       <c r="L14">
-        <v>0.8833522333512084</v>
+        <v>0.8876732798361069</v>
       </c>
       <c r="M14">
-        <v>0.9001266116056222</v>
+        <v>0.9037356701817706</v>
+      </c>
+      <c r="N14">
+        <v>0.8829593132980188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8416344182299608</v>
+        <v>0.8468060747972812</v>
       </c>
       <c r="D15">
-        <v>0.9800038169652845</v>
+        <v>0.9815042990143409</v>
       </c>
       <c r="E15">
-        <v>0.8677830297079359</v>
+        <v>0.8721925642524244</v>
       </c>
       <c r="F15">
-        <v>0.8849493097264043</v>
+        <v>0.8886241055106592</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017205186613522</v>
+        <v>1.018274841266276</v>
       </c>
       <c r="J15">
-        <v>0.8792818986381922</v>
+        <v>0.8841037458444972</v>
       </c>
       <c r="K15">
-        <v>0.9952388603295282</v>
+        <v>0.9967097334994407</v>
       </c>
       <c r="L15">
-        <v>0.8856293657349752</v>
+        <v>0.8899190091702848</v>
       </c>
       <c r="M15">
-        <v>0.9023380174282857</v>
+        <v>0.9059179549091502</v>
+      </c>
+      <c r="N15">
+        <v>0.8853592745717134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8574385395891777</v>
+        <v>0.862401304350753</v>
       </c>
       <c r="D16">
-        <v>0.9862412990398476</v>
+        <v>0.9876787745779172</v>
       </c>
       <c r="E16">
-        <v>0.8812745631816473</v>
+        <v>0.885515319648424</v>
       </c>
       <c r="F16">
-        <v>0.8980708251058098</v>
+        <v>0.9015900776268474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020939478789264</v>
+        <v>1.021967462168272</v>
       </c>
       <c r="J16">
-        <v>0.8926237444581111</v>
+        <v>0.8972830159439571</v>
       </c>
       <c r="K16">
-        <v>1.000826072423347</v>
+        <v>1.002236770284758</v>
       </c>
       <c r="L16">
-        <v>0.8981341696155966</v>
+        <v>0.9022689122279478</v>
       </c>
       <c r="M16">
-        <v>0.9145184200696187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9179539522663785</v>
+      </c>
+      <c r="N16">
+        <v>0.8985572607463981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8666290483440392</v>
+        <v>0.871486056309609</v>
       </c>
       <c r="D17">
-        <v>0.9899165510498648</v>
+        <v>0.9913218235189556</v>
       </c>
       <c r="E17">
-        <v>0.8891353691821773</v>
+        <v>0.8932906844842204</v>
       </c>
       <c r="F17">
-        <v>0.9057458657958763</v>
+        <v>0.9091858355484556</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023121817353245</v>
+        <v>1.024128631188009</v>
       </c>
       <c r="J17">
-        <v>0.9003901345702787</v>
+        <v>0.904967654833012</v>
       </c>
       <c r="K17">
-        <v>1.004103720158548</v>
+        <v>1.005483743010157</v>
       </c>
       <c r="L17">
-        <v>0.9054132030910582</v>
+        <v>0.9094698092816081</v>
       </c>
       <c r="M17">
-        <v>0.9216363581174399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9249984686376129</v>
+      </c>
+      <c r="N17">
+        <v>0.9062528127041157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8717687056126262</v>
+        <v>0.8765709784896414</v>
       </c>
       <c r="D18">
-        <v>0.9919866950996251</v>
+        <v>0.9933752060683875</v>
       </c>
       <c r="E18">
-        <v>0.8935359316800615</v>
+        <v>0.8976470343069707</v>
       </c>
       <c r="F18">
-        <v>0.9100517133177002</v>
+        <v>0.9134504835190921</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024345127521092</v>
+        <v>1.025340964675434</v>
       </c>
       <c r="J18">
-        <v>0.9047354798950669</v>
+        <v>0.9092708738524778</v>
       </c>
       <c r="K18">
-        <v>1.005945197234449</v>
+        <v>1.007309280376205</v>
       </c>
       <c r="L18">
-        <v>0.9094857579583698</v>
+        <v>0.9135020230817068</v>
       </c>
       <c r="M18">
-        <v>0.9256274497523702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9289514660460012</v>
+      </c>
+      <c r="N18">
+        <v>0.9105621427881754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,75 +1118,81 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8734867755177196</v>
+        <v>0.8782714103250562</v>
       </c>
       <c r="D19">
-        <v>0.992681016372628</v>
+        <v>0.9940641110842712</v>
       </c>
       <c r="E19">
-        <v>0.8950076351321323</v>
+        <v>0.8991044922372765</v>
       </c>
       <c r="F19">
-        <v>0.9114932018969524</v>
+        <v>0.9148786694459545</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024754459444103</v>
+        <v>1.025746756435549</v>
       </c>
       <c r="J19">
-        <v>0.906188333326567</v>
+        <v>0.9107101825659746</v>
       </c>
       <c r="K19">
-        <v>1.006562063360729</v>
+        <v>1.00792100009482</v>
       </c>
       <c r="L19">
-        <v>0.9108473803742191</v>
+        <v>0.9148506623761504</v>
       </c>
       <c r="M19">
-        <v>0.9269632040971683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.930274930054119</v>
+      </c>
+      <c r="N19">
+        <v>0.9120034954851365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8656666187150907</v>
+        <v>0.8705342153056381</v>
       </c>
       <c r="D20">
-        <v>0.9895300733963547</v>
+        <v>0.9909385806309526</v>
       </c>
       <c r="E20">
-        <v>0.8883116927387468</v>
+        <v>0.8924755618674729</v>
       </c>
       <c r="F20">
-        <v>0.9049406511529197</v>
+        <v>0.9083885773619554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022892961415372</v>
+        <v>1.023901897102081</v>
       </c>
       <c r="J20">
-        <v>0.8995766037987273</v>
+        <v>0.9041622889508736</v>
       </c>
       <c r="K20">
-        <v>1.003759556545167</v>
+        <v>1.005142657766966</v>
       </c>
       <c r="L20">
-        <v>0.9046507333112429</v>
+        <v>0.9087151519499967</v>
       </c>
       <c r="M20">
-        <v>0.9208898263291985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9242592985593754</v>
+      </c>
+      <c r="N20">
+        <v>0.9054463031100479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8373582302207269</v>
+        <v>0.8425931235659442</v>
       </c>
       <c r="D21">
-        <v>0.9783346897364942</v>
+        <v>0.9798541111576109</v>
       </c>
       <c r="E21">
-        <v>0.8641386047039991</v>
+        <v>0.868599228091985</v>
       </c>
       <c r="F21">
-        <v>0.8814163022205854</v>
+        <v>0.8851379481568994</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01619942309212</v>
+        <v>1.017281657994061</v>
       </c>
       <c r="J21">
-        <v>0.8756752677137033</v>
+        <v>0.8805465618473416</v>
       </c>
       <c r="K21">
-        <v>0.993738481006357</v>
+        <v>0.9952274763679992</v>
       </c>
       <c r="L21">
-        <v>0.8822490545729296</v>
+        <v>0.8865857037723949</v>
       </c>
       <c r="M21">
-        <v>0.8990560259825197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9026795365812927</v>
+      </c>
+      <c r="N21">
+        <v>0.8817970389652672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8165006252377356</v>
+        <v>0.8220941515652606</v>
       </c>
       <c r="D22">
-        <v>0.970311973625276</v>
+        <v>0.9719378726260436</v>
       </c>
       <c r="E22">
-        <v>0.8464027535719332</v>
+        <v>0.8511530133875088</v>
       </c>
       <c r="F22">
-        <v>0.8642956945175915</v>
+        <v>0.8682813809019503</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011326969912267</v>
+        <v>1.012480287050818</v>
       </c>
       <c r="J22">
-        <v>0.8581074640114731</v>
+        <v>0.8632606663064112</v>
       </c>
       <c r="K22">
-        <v>0.9864954249277392</v>
+        <v>0.9880865246850788</v>
       </c>
       <c r="L22">
-        <v>0.8657846863368104</v>
+        <v>0.8703885932289167</v>
       </c>
       <c r="M22">
-        <v>0.8831378491865423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8870074481446436</v>
+      </c>
+      <c r="N22">
+        <v>0.8644865954699487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.827922013913413</v>
+        <v>0.833308108496324</v>
       </c>
       <c r="D23">
-        <v>0.9746803753495689</v>
+        <v>0.976244866966693</v>
       </c>
       <c r="E23">
-        <v>0.8561061881375998</v>
+        <v>0.8606889476065717</v>
       </c>
       <c r="F23">
-        <v>0.8736472687781965</v>
+        <v>0.8774805546971303</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013987901452759</v>
+        <v>1.015100156833564</v>
       </c>
       <c r="J23">
-        <v>0.8677222188819401</v>
+        <v>0.8727120903508011</v>
       </c>
       <c r="K23">
-        <v>0.9904457900212653</v>
+        <v>0.9919779626924711</v>
       </c>
       <c r="L23">
-        <v>0.8747952714099357</v>
+        <v>0.8792444750734228</v>
       </c>
       <c r="M23">
-        <v>0.8918354880332739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8955629500065868</v>
+      </c>
+      <c r="N23">
+        <v>0.8739514416205751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.866102172956621</v>
+        <v>0.87096496401959</v>
       </c>
       <c r="D24">
-        <v>0.9897049305521686</v>
+        <v>0.9911119700287842</v>
       </c>
       <c r="E24">
-        <v>0.8886844392554253</v>
+        <v>0.8928444262997</v>
       </c>
       <c r="F24">
-        <v>0.9053050141444785</v>
+        <v>0.9087493299396276</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022996522980012</v>
+        <v>1.02400449575263</v>
       </c>
       <c r="J24">
-        <v>0.8999447663646896</v>
+        <v>0.9045267453785211</v>
       </c>
       <c r="K24">
-        <v>1.003915283875663</v>
+        <v>1.005296988217991</v>
       </c>
       <c r="L24">
-        <v>0.9049957886415489</v>
+        <v>0.9090566613687548</v>
       </c>
       <c r="M24">
-        <v>0.921227641984908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9245937734885797</v>
+      </c>
+      <c r="N24">
+        <v>0.9058112771076265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9017468027852502</v>
+        <v>0.9062826056502298</v>
       </c>
       <c r="D25">
-        <v>1.00426025705488</v>
+        <v>1.005566017680679</v>
       </c>
       <c r="E25">
-        <v>0.9192611024151425</v>
+        <v>0.9231571712741427</v>
       </c>
       <c r="F25">
-        <v>0.9353505727460268</v>
+        <v>0.9385467307302885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031507949755162</v>
+        <v>1.03245015279227</v>
       </c>
       <c r="J25">
-        <v>0.9301024120660664</v>
+        <v>0.9344352093177997</v>
       </c>
       <c r="K25">
-        <v>1.016792796059986</v>
+        <v>1.018078538529039</v>
       </c>
       <c r="L25">
-        <v>0.9332570011501296</v>
+        <v>0.9370782840481702</v>
       </c>
       <c r="M25">
-        <v>0.9490428770611067</v>
+        <v>0.9521803396647912</v>
+      </c>
+      <c r="N25">
+        <v>0.9357622144962479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9303174887098128</v>
+        <v>0.7817158469799773</v>
       </c>
       <c r="D2">
-        <v>1.015646206200953</v>
+        <v>1.022442482502207</v>
       </c>
       <c r="E2">
-        <v>0.9438524553816215</v>
+        <v>0.812409647647454</v>
       </c>
       <c r="F2">
-        <v>0.959052435101988</v>
+        <v>0.8364089203450422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038207952668091</v>
+        <v>1.035497413569695</v>
       </c>
       <c r="J2">
-        <v>0.954802782724145</v>
+        <v>0.8131878530261024</v>
       </c>
       <c r="K2">
-        <v>1.026891784473157</v>
+        <v>1.033597767183442</v>
       </c>
       <c r="L2">
-        <v>0.9561536948716166</v>
+        <v>0.8272938968941347</v>
       </c>
       <c r="M2">
-        <v>0.9711133298980384</v>
+        <v>0.850740902428738</v>
       </c>
       <c r="N2">
-        <v>0.9561587121930232</v>
+        <v>0.8143426730513498</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.946079028983761</v>
+        <v>0.8295877412089026</v>
       </c>
       <c r="D3">
-        <v>1.0223486895942</v>
+        <v>1.027291110609567</v>
       </c>
       <c r="E3">
-        <v>0.9574468099210682</v>
+        <v>0.8540749142307673</v>
       </c>
       <c r="F3">
-        <v>0.972589414073692</v>
+        <v>0.8759416050806974</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041970480891071</v>
+        <v>1.038853004796074</v>
       </c>
       <c r="J3">
-        <v>0.9681559516362901</v>
+        <v>0.8561175538944628</v>
       </c>
       <c r="K3">
-        <v>1.0327033826149</v>
+        <v>1.037586310230383</v>
       </c>
       <c r="L3">
-        <v>0.9686547640170238</v>
+        <v>0.8669920735478979</v>
       </c>
       <c r="M3">
-        <v>0.9835854631393917</v>
+        <v>0.88845351203971</v>
       </c>
       <c r="N3">
-        <v>0.9695308441366536</v>
+        <v>0.857333339019049</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9556493028929527</v>
+        <v>0.8538757049280155</v>
       </c>
       <c r="D4">
-        <v>1.026449655761034</v>
+        <v>1.029986061538759</v>
       </c>
       <c r="E4">
-        <v>0.9657083848592113</v>
+        <v>0.8752945319393103</v>
       </c>
       <c r="F4">
-        <v>0.9808411952407203</v>
+        <v>0.8962382298522141</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044244429785804</v>
+        <v>1.04060364475607</v>
       </c>
       <c r="J4">
-        <v>0.976259815615474</v>
+        <v>0.8779332964572782</v>
       </c>
       <c r="K4">
-        <v>1.036239002477569</v>
+        <v>1.039735565583883</v>
       </c>
       <c r="L4">
-        <v>0.9762390910516111</v>
+        <v>0.8871742164411676</v>
       </c>
       <c r="M4">
-        <v>0.9911764855491684</v>
+        <v>0.9077744078533352</v>
       </c>
       <c r="N4">
-        <v>0.9776462165322141</v>
+        <v>0.8791800624386042</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9595399249644208</v>
+        <v>0.8630927540938641</v>
       </c>
       <c r="D5">
-        <v>1.028122976664648</v>
+        <v>1.031049842108804</v>
       </c>
       <c r="E5">
-        <v>0.9690683191471763</v>
+        <v>0.8833581615309302</v>
       </c>
       <c r="F5">
-        <v>0.9842024653164262</v>
+        <v>0.9039761733727338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045165763455803</v>
+        <v>1.041274271055195</v>
       </c>
       <c r="J5">
-        <v>0.9795530286939271</v>
+        <v>0.8862154707176992</v>
       </c>
       <c r="K5">
-        <v>1.037677031380379</v>
+        <v>1.040571847982413</v>
       </c>
       <c r="L5">
-        <v>0.9793205872278139</v>
+        <v>0.8948364182873632</v>
       </c>
       <c r="M5">
-        <v>0.9942658742844449</v>
+        <v>0.9151324619203661</v>
       </c>
       <c r="N5">
-        <v>0.9809441063509754</v>
+        <v>0.8874739983364537</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9601858455665295</v>
+        <v>0.8645921042102013</v>
       </c>
       <c r="D6">
-        <v>1.028401107669767</v>
+        <v>1.031225014060346</v>
       </c>
       <c r="E6">
-        <v>0.9696262040715461</v>
+        <v>0.8846703855225142</v>
       </c>
       <c r="F6">
-        <v>0.9847608672166596</v>
+        <v>0.9052366190576476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045318526176475</v>
+        <v>1.041383630929707</v>
       </c>
       <c r="J6">
-        <v>0.9800996854827118</v>
+        <v>0.8875628497431945</v>
       </c>
       <c r="K6">
-        <v>1.037915787996995</v>
+        <v>1.040708921854697</v>
       </c>
       <c r="L6">
-        <v>0.9798320650932982</v>
+        <v>0.8960829188341303</v>
       </c>
       <c r="M6">
-        <v>0.9947789500444828</v>
+        <v>0.9163305966574045</v>
       </c>
       <c r="N6">
-        <v>0.9814915394551024</v>
+        <v>0.8888232907947116</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9557017902465488</v>
+        <v>0.8540022825319801</v>
       </c>
       <c r="D7">
-        <v>1.026472207256323</v>
+        <v>1.030000517939963</v>
       </c>
       <c r="E7">
-        <v>0.9657537079665478</v>
+        <v>0.8754052321862319</v>
       </c>
       <c r="F7">
-        <v>0.9808865160245485</v>
+        <v>0.8963443697254926</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044256872267531</v>
+        <v>1.040612833923954</v>
       </c>
       <c r="J7">
-        <v>0.9763042488730191</v>
+        <v>0.8780470263835464</v>
       </c>
       <c r="K7">
-        <v>1.036258400978699</v>
+        <v>1.039746975217236</v>
       </c>
       <c r="L7">
-        <v>0.9762806701069848</v>
+        <v>0.8872794336646863</v>
       </c>
       <c r="M7">
-        <v>0.9912181512738958</v>
+        <v>0.9078753671710086</v>
       </c>
       <c r="N7">
-        <v>0.9776907128900814</v>
+        <v>0.8792939538744127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9357862234139255</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D8">
-        <v>1.017964060470704</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E8">
-        <v>0.9485674224610643</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F8">
-        <v>0.963741607656194</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039515342872749</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J8">
-        <v>0.9594365666173816</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K8">
-        <v>1.02890607332015</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L8">
-        <v>0.9604922960676535</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M8">
-        <v>0.9754362014436301</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N8">
-        <v>0.9607990765908905</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8948137865306659</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D9">
-        <v>1.000822680668873</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E9">
-        <v>0.9132995619936842</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F9">
-        <v>0.9288246937915466</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029702318172822</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J9">
-        <v>0.9247184420739932</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K9">
-        <v>1.013902424539621</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L9">
-        <v>0.9279755589088243</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M9">
-        <v>0.9431887261808217</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N9">
-        <v>0.9260316483284263</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8613432099332951</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D10">
-        <v>0.9872566431207288</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E10">
-        <v>0.8846103952923486</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F10">
-        <v>0.9007074051054337</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021716195639552</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J10">
-        <v>0.8963883129716237</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K10">
-        <v>1.001859858874796</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L10">
-        <v>0.9014305176104341</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M10">
-        <v>0.9171350240830267</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N10">
-        <v>0.8976612871932198</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8445136170790971</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D11">
-        <v>0.9806053980247236</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E11">
-        <v>0.8702369533932189</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F11">
-        <v>0.886726236150433</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017734156696353</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J11">
-        <v>0.8821679434398186</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K11">
-        <v>0.9959025768844663</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L11">
-        <v>0.8881050363455016</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M11">
-        <v>0.9041550744041986</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N11">
-        <v>0.8834207231055806</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8377799171594692</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D12">
-        <v>0.9779783414207009</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E12">
-        <v>0.864497060435624</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F12">
-        <v>0.8811639844376215</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016149487421605</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J12">
-        <v>0.8764843545742905</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K12">
-        <v>0.9935399627081793</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L12">
-        <v>0.8827792100502879</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M12">
-        <v>0.8989868084171747</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N12">
-        <v>0.8777290628919466</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8392491606849281</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D13">
-        <v>0.9785498376438166</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E13">
-        <v>0.8657488964729845</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F13">
-        <v>0.8823760303394282</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016494791884508</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J13">
-        <v>0.8777241440270794</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K13">
-        <v>0.9940543996567114</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L13">
-        <v>0.8839409485195315</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M13">
-        <v>0.9001132097578981</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N13">
-        <v>0.8789706129879642</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8439678978051796</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D14">
-        <v>0.9803917516033845</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E14">
-        <v>0.8697715305325815</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F14">
-        <v>0.886274762189456</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017605533740968</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J14">
-        <v>0.8817071879578907</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K14">
-        <v>0.9957106415101276</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L14">
-        <v>0.8876732798361069</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M14">
-        <v>0.9037356701817706</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N14">
-        <v>0.8829593132980188</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8468060747972812</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D15">
-        <v>0.9815042990143409</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E15">
-        <v>0.8721925642524244</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F15">
-        <v>0.8886241055106592</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018274841266276</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J15">
-        <v>0.8841037458444972</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K15">
-        <v>0.9967097334994407</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L15">
-        <v>0.8899190091702848</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M15">
-        <v>0.9059179549091502</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N15">
-        <v>0.8853592745717134</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.862401304350753</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D16">
-        <v>0.9876787745779172</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E16">
-        <v>0.885515319648424</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F16">
-        <v>0.9015900776268474</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021967462168272</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J16">
-        <v>0.8972830159439571</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K16">
-        <v>1.002236770284758</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L16">
-        <v>0.9022689122279478</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M16">
-        <v>0.9179539522663785</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N16">
-        <v>0.8985572607463981</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.871486056309609</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D17">
-        <v>0.9913218235189556</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E17">
-        <v>0.8932906844842204</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F17">
-        <v>0.9091858355484556</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024128631188009</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J17">
-        <v>0.904967654833012</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K17">
-        <v>1.005483743010157</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L17">
-        <v>0.9094698092816081</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M17">
-        <v>0.9249984686376129</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N17">
-        <v>0.9062528127041157</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8765709784896414</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D18">
-        <v>0.9933752060683875</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E18">
-        <v>0.8976470343069707</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F18">
-        <v>0.9134504835190921</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025340964675434</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J18">
-        <v>0.9092708738524778</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K18">
-        <v>1.007309280376205</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L18">
-        <v>0.9135020230817068</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M18">
-        <v>0.9289514660460012</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N18">
-        <v>0.9105621427881754</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8782714103250562</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D19">
-        <v>0.9940641110842712</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E19">
-        <v>0.8991044922372765</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F19">
-        <v>0.9148786694459545</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025746756435549</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J19">
-        <v>0.9107101825659746</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K19">
-        <v>1.00792100009482</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L19">
-        <v>0.9148506623761504</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M19">
-        <v>0.930274930054119</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N19">
-        <v>0.9120034954851365</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8705342153056381</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D20">
-        <v>0.9909385806309526</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E20">
-        <v>0.8924755618674729</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F20">
-        <v>0.9083885773619554</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023901897102081</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J20">
-        <v>0.9041622889508736</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K20">
-        <v>1.005142657766966</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L20">
-        <v>0.9087151519499967</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M20">
-        <v>0.9242592985593754</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N20">
-        <v>0.9054463031100479</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8425931235659442</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D21">
-        <v>0.9798541111576109</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E21">
-        <v>0.868599228091985</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F21">
-        <v>0.8851379481568994</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017281657994061</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J21">
-        <v>0.8805465618473416</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K21">
-        <v>0.9952274763679992</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L21">
-        <v>0.8865857037723949</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M21">
-        <v>0.9026795365812927</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N21">
-        <v>0.8817970389652672</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8220941515652606</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D22">
-        <v>0.9719378726260436</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E22">
-        <v>0.8511530133875088</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F22">
-        <v>0.8682813809019503</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012480287050818</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J22">
-        <v>0.8632606663064112</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K22">
-        <v>0.9880865246850788</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L22">
-        <v>0.8703885932289167</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M22">
-        <v>0.8870074481446436</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N22">
-        <v>0.8644865954699487</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.833308108496324</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D23">
-        <v>0.976244866966693</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E23">
-        <v>0.8606889476065717</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F23">
-        <v>0.8774805546971303</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015100156833564</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J23">
-        <v>0.8727120903508011</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K23">
-        <v>0.9919779626924711</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L23">
-        <v>0.8792444750734228</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M23">
-        <v>0.8955629500065868</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N23">
-        <v>0.8739514416205751</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.87096496401959</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D24">
-        <v>0.9911119700287842</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E24">
-        <v>0.8928444262997</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F24">
-        <v>0.9087493299396276</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02400449575263</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J24">
-        <v>0.9045267453785211</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K24">
-        <v>1.005296988217991</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L24">
-        <v>0.9090566613687548</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M24">
-        <v>0.9245937734885797</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N24">
-        <v>0.9058112771076265</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9062826056502298</v>
+        <v>0.7998575827617684</v>
       </c>
       <c r="D25">
-        <v>1.005566017680679</v>
+        <v>1.024207392013836</v>
       </c>
       <c r="E25">
-        <v>0.9231571712741427</v>
+        <v>0.8281706263104361</v>
       </c>
       <c r="F25">
-        <v>0.9385467307302885</v>
+        <v>0.8513088110741021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03245015279227</v>
+        <v>1.036751976777897</v>
       </c>
       <c r="J25">
-        <v>0.9344352093177997</v>
+        <v>0.8294424827294676</v>
       </c>
       <c r="K25">
-        <v>1.018078538529039</v>
+        <v>1.035069146280991</v>
       </c>
       <c r="L25">
-        <v>0.9370782840481702</v>
+        <v>0.8423208284163736</v>
       </c>
       <c r="M25">
-        <v>0.9521803396647912</v>
+        <v>0.8649668773351263</v>
       </c>
       <c r="N25">
-        <v>0.9357622144962479</v>
+        <v>0.830620386193326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7817158469799773</v>
+        <v>0.9920476622497882</v>
       </c>
       <c r="D2">
-        <v>1.022442482502207</v>
+        <v>1.041557854001006</v>
       </c>
       <c r="E2">
-        <v>0.812409647647454</v>
+        <v>1.013499822362169</v>
       </c>
       <c r="F2">
-        <v>0.8364089203450422</v>
+        <v>1.033963974158557</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035497413569695</v>
+        <v>1.058555663777703</v>
       </c>
       <c r="J2">
-        <v>0.8131878530261024</v>
+        <v>1.01446885616425</v>
       </c>
       <c r="K2">
-        <v>1.033597767183442</v>
+        <v>1.05246706129028</v>
       </c>
       <c r="L2">
-        <v>0.8272938968941347</v>
+        <v>1.024774233207598</v>
       </c>
       <c r="M2">
-        <v>0.850740902428738</v>
+        <v>1.044969577906767</v>
       </c>
       <c r="N2">
-        <v>0.8143426730513498</v>
+        <v>1.008781475499335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8295877412089026</v>
+        <v>0.9962147802086584</v>
       </c>
       <c r="D3">
-        <v>1.027291110609567</v>
+        <v>1.04441726034432</v>
       </c>
       <c r="E3">
-        <v>0.8540749142307673</v>
+        <v>1.01685731298284</v>
       </c>
       <c r="F3">
-        <v>0.8759416050806974</v>
+        <v>1.037467824542075</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038853004796074</v>
+        <v>1.059608767482645</v>
       </c>
       <c r="J3">
-        <v>0.8561175538944628</v>
+        <v>1.016809168726752</v>
       </c>
       <c r="K3">
-        <v>1.037586310230383</v>
+        <v>1.054511688068197</v>
       </c>
       <c r="L3">
-        <v>0.8669920735478979</v>
+        <v>1.027278950827224</v>
       </c>
       <c r="M3">
-        <v>0.88845351203971</v>
+        <v>1.047642732840083</v>
       </c>
       <c r="N3">
-        <v>0.857333339019049</v>
+        <v>1.00956811849766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8538757049280155</v>
+        <v>0.9988599042884549</v>
       </c>
       <c r="D4">
-        <v>1.029986061538759</v>
+        <v>1.046225222446041</v>
       </c>
       <c r="E4">
-        <v>0.8752945319393103</v>
+        <v>1.018992053908752</v>
       </c>
       <c r="F4">
-        <v>0.8962382298522141</v>
+        <v>1.039689446119733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04060364475607</v>
+        <v>1.060259534045159</v>
       </c>
       <c r="J4">
-        <v>0.8779332964572782</v>
+        <v>1.018292818860943</v>
       </c>
       <c r="K4">
-        <v>1.039735565583883</v>
+        <v>1.055796011345559</v>
       </c>
       <c r="L4">
-        <v>0.8871742164411676</v>
+        <v>1.028866540422444</v>
       </c>
       <c r="M4">
-        <v>0.9077744078533352</v>
+        <v>1.049331338016444</v>
       </c>
       <c r="N4">
-        <v>0.8791800624386042</v>
+        <v>1.010066619735083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8630927540938641</v>
+        <v>0.9999600489822194</v>
       </c>
       <c r="D5">
-        <v>1.031049842108804</v>
+        <v>1.046975387137247</v>
       </c>
       <c r="E5">
-        <v>0.8833581615309302</v>
+        <v>1.019880720535687</v>
       </c>
       <c r="F5">
-        <v>0.9039761733727338</v>
+        <v>1.040612778390182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041274271055195</v>
+        <v>1.060525879321904</v>
       </c>
       <c r="J5">
-        <v>0.8862154707176992</v>
+        <v>1.018909407159612</v>
       </c>
       <c r="K5">
-        <v>1.040571847982413</v>
+        <v>1.056326850539205</v>
       </c>
       <c r="L5">
-        <v>0.8948364182873632</v>
+        <v>1.029526243563879</v>
       </c>
       <c r="M5">
-        <v>0.9151324619203661</v>
+        <v>1.050031610585494</v>
       </c>
       <c r="N5">
-        <v>0.8874739983364537</v>
+        <v>1.010273742149682</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8645921042102013</v>
+        <v>1.000144083916374</v>
       </c>
       <c r="D6">
-        <v>1.031225014060346</v>
+        <v>1.047100768482598</v>
       </c>
       <c r="E6">
-        <v>0.8846703855225142</v>
+        <v>1.020029424318014</v>
       </c>
       <c r="F6">
-        <v>0.9052366190576476</v>
+        <v>1.040767194066691</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041383630929707</v>
+        <v>1.060570178391886</v>
       </c>
       <c r="J6">
-        <v>0.8875628497431945</v>
+        <v>1.019012522347831</v>
       </c>
       <c r="K6">
-        <v>1.040708921854697</v>
+        <v>1.056415452541205</v>
       </c>
       <c r="L6">
-        <v>0.8960829188341303</v>
+        <v>1.029636563927411</v>
       </c>
       <c r="M6">
-        <v>0.9163305966574045</v>
+        <v>1.050148631785533</v>
       </c>
       <c r="N6">
-        <v>0.8888232907947116</v>
+        <v>1.010308377322919</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8540022825319801</v>
+        <v>0.9988746505679468</v>
       </c>
       <c r="D7">
-        <v>1.030000517939963</v>
+        <v>1.046235284814093</v>
       </c>
       <c r="E7">
-        <v>0.8754052321862319</v>
+        <v>1.019003962464402</v>
       </c>
       <c r="F7">
-        <v>0.8963443697254926</v>
+        <v>1.039701825165669</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040612833923954</v>
+        <v>1.060263121266156</v>
       </c>
       <c r="J7">
-        <v>0.8780470263835464</v>
+        <v>1.018301085522374</v>
       </c>
       <c r="K7">
-        <v>1.039746975217236</v>
+        <v>1.055803139941566</v>
       </c>
       <c r="L7">
-        <v>0.8872794336646863</v>
+        <v>1.028875385466311</v>
       </c>
       <c r="M7">
-        <v>0.9078753671710086</v>
+        <v>1.049340732591806</v>
       </c>
       <c r="N7">
-        <v>0.8792939538744127</v>
+        <v>1.010069396843386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.7998575827617684</v>
+        <v>0.9934668307872524</v>
       </c>
       <c r="D8">
-        <v>1.024207392013836</v>
+        <v>1.042533088183937</v>
       </c>
       <c r="E8">
-        <v>0.8281706263104361</v>
+        <v>1.014642488724941</v>
       </c>
       <c r="F8">
-        <v>0.8513088110741021</v>
+        <v>1.035157732250998</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036751976777897</v>
+        <v>1.058917978013984</v>
       </c>
       <c r="J8">
-        <v>0.8294424827294676</v>
+        <v>1.015266258805347</v>
       </c>
       <c r="K8">
-        <v>1.035069146280991</v>
+        <v>1.053166168835637</v>
       </c>
       <c r="L8">
-        <v>0.8423208284163736</v>
+        <v>1.025627704828479</v>
       </c>
       <c r="M8">
-        <v>0.8649668773351263</v>
+        <v>1.045881632156026</v>
       </c>
       <c r="N8">
-        <v>0.830620386193326</v>
+        <v>1.009049543473007</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7998575827617684</v>
+        <v>0.9835253433287532</v>
       </c>
       <c r="D9">
-        <v>1.024207392013836</v>
+        <v>1.035675424482385</v>
       </c>
       <c r="E9">
-        <v>0.8281706263104361</v>
+        <v>1.006655088507489</v>
       </c>
       <c r="F9">
-        <v>0.8513088110741021</v>
+        <v>1.026787931436564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036751976777897</v>
+        <v>1.056307882589472</v>
       </c>
       <c r="J9">
-        <v>0.8294424827294676</v>
+        <v>1.009673584814498</v>
       </c>
       <c r="K9">
-        <v>1.035069146280991</v>
+        <v>1.048215045230579</v>
       </c>
       <c r="L9">
-        <v>0.8423208284163736</v>
+        <v>1.019641106503104</v>
       </c>
       <c r="M9">
-        <v>0.8649668773351263</v>
+        <v>1.039460845636791</v>
       </c>
       <c r="N9">
-        <v>0.830620386193326</v>
+        <v>1.007168698822079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7998575827617684</v>
+        <v>0.9765916772460279</v>
       </c>
       <c r="D10">
-        <v>1.024207392013836</v>
+        <v>1.030864019748725</v>
       </c>
       <c r="E10">
-        <v>0.8281706263104361</v>
+        <v>1.00110858617087</v>
       </c>
       <c r="F10">
-        <v>0.8513088110741021</v>
+        <v>1.020944727996246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036751976777897</v>
+        <v>1.054399223889513</v>
       </c>
       <c r="J10">
-        <v>0.8294424827294676</v>
+        <v>1.005765832142822</v>
       </c>
       <c r="K10">
-        <v>1.035069146280991</v>
+        <v>1.044697512401738</v>
       </c>
       <c r="L10">
-        <v>0.8423208284163736</v>
+        <v>1.015457853558338</v>
       </c>
       <c r="M10">
-        <v>0.8649668773351263</v>
+        <v>1.034945843254276</v>
       </c>
       <c r="N10">
-        <v>0.830620386193326</v>
+        <v>1.005853702181058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7998575827617684</v>
+        <v>0.9735097975825435</v>
       </c>
       <c r="D11">
-        <v>1.024207392013836</v>
+        <v>1.02872016716297</v>
       </c>
       <c r="E11">
-        <v>0.8281706263104361</v>
+        <v>0.9986498892323575</v>
       </c>
       <c r="F11">
-        <v>0.8513088110741021</v>
+        <v>1.018347402185579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036751976777897</v>
+        <v>1.053530979291333</v>
       </c>
       <c r="J11">
-        <v>0.8294424827294676</v>
+        <v>1.00402768785888</v>
       </c>
       <c r="K11">
-        <v>1.035069146280991</v>
+        <v>1.043120053347259</v>
       </c>
       <c r="L11">
-        <v>0.8423208284163736</v>
+        <v>1.013597311657725</v>
       </c>
       <c r="M11">
-        <v>0.8649668773351263</v>
+        <v>1.032931414000724</v>
       </c>
       <c r="N11">
-        <v>0.830620386193326</v>
+        <v>1.005268647456178</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7998575827617684</v>
+        <v>0.9723524618767001</v>
       </c>
       <c r="D12">
-        <v>1.024207392013836</v>
+        <v>1.027914427505936</v>
       </c>
       <c r="E12">
-        <v>0.8281706263104361</v>
+        <v>0.997727646919558</v>
       </c>
       <c r="F12">
-        <v>0.8513088110741021</v>
+        <v>1.017372118592983</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036751976777897</v>
+        <v>1.05320203317282</v>
       </c>
       <c r="J12">
-        <v>0.8294424827294676</v>
+        <v>1.003374821978765</v>
       </c>
       <c r="K12">
-        <v>1.035069146280991</v>
+        <v>1.042525684019451</v>
       </c>
       <c r="L12">
-        <v>0.8423208284163736</v>
+        <v>1.012898511500622</v>
       </c>
       <c r="M12">
-        <v>0.8649668773351263</v>
+        <v>1.032173896340672</v>
       </c>
       <c r="N12">
-        <v>0.830620386193326</v>
+        <v>1.005048874880496</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7998575827617684</v>
+        <v>0.9726012946374473</v>
       </c>
       <c r="D13">
-        <v>1.024207392013836</v>
+        <v>1.028087693080366</v>
       </c>
       <c r="E13">
-        <v>0.8281706263104361</v>
+        <v>0.9979258838510555</v>
       </c>
       <c r="F13">
-        <v>0.8513088110741021</v>
+        <v>1.017581803501431</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036751976777897</v>
+        <v>1.053272887469561</v>
       </c>
       <c r="J13">
-        <v>0.8294424827294676</v>
+        <v>1.003515197017478</v>
       </c>
       <c r="K13">
-        <v>1.035069146280991</v>
+        <v>1.042653564226911</v>
       </c>
       <c r="L13">
-        <v>0.8423208284163736</v>
+        <v>1.01304876094511</v>
       </c>
       <c r="M13">
-        <v>0.8649668773351263</v>
+        <v>1.032336811653771</v>
       </c>
       <c r="N13">
-        <v>0.830620386193326</v>
+        <v>1.00509612980769</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7998575827617684</v>
+        <v>0.9734143924760544</v>
       </c>
       <c r="D14">
-        <v>1.024207392013836</v>
+        <v>1.028653758564193</v>
       </c>
       <c r="E14">
-        <v>0.8281706263104361</v>
+        <v>0.9985738418701359</v>
       </c>
       <c r="F14">
-        <v>0.8513088110741021</v>
+        <v>1.01826700213538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036751976777897</v>
+        <v>1.053503920891059</v>
       </c>
       <c r="J14">
-        <v>0.8294424827294676</v>
+        <v>1.003973871421547</v>
       </c>
       <c r="K14">
-        <v>1.035069146280991</v>
+        <v>1.043071096176659</v>
       </c>
       <c r="L14">
-        <v>0.8423208284163736</v>
+        <v>1.013539707896436</v>
       </c>
       <c r="M14">
-        <v>0.8649668773351263</v>
+        <v>1.032868988504392</v>
       </c>
       <c r="N14">
-        <v>0.830620386193326</v>
+        <v>1.005250531747105</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7998575827617684</v>
+        <v>0.9739136810808818</v>
       </c>
       <c r="D15">
-        <v>1.024207392013836</v>
+        <v>1.029001272078216</v>
       </c>
       <c r="E15">
-        <v>0.8281706263104361</v>
+        <v>0.9989718686590421</v>
       </c>
       <c r="F15">
-        <v>0.8513088110741021</v>
+        <v>1.018687768228753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036751976777897</v>
+        <v>1.053645409573258</v>
       </c>
       <c r="J15">
-        <v>0.8294424827294676</v>
+        <v>1.004255506301837</v>
       </c>
       <c r="K15">
-        <v>1.035069146280991</v>
+        <v>1.043327225986637</v>
       </c>
       <c r="L15">
-        <v>0.8423208284163736</v>
+        <v>1.013841164514507</v>
       </c>
       <c r="M15">
-        <v>0.8649668773351263</v>
+        <v>1.033195641343107</v>
       </c>
       <c r="N15">
-        <v>0.830620386193326</v>
+        <v>1.00534533500249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7998575827617684</v>
+        <v>0.976794481948133</v>
       </c>
       <c r="D16">
-        <v>1.024207392013836</v>
+        <v>1.031004998123404</v>
       </c>
       <c r="E16">
-        <v>0.8281706263104361</v>
+        <v>1.00127052629654</v>
       </c>
       <c r="F16">
-        <v>0.8513088110741021</v>
+        <v>1.021115652599108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036751976777897</v>
+        <v>1.054455952346027</v>
       </c>
       <c r="J16">
-        <v>0.8294424827294676</v>
+        <v>1.005880189613724</v>
       </c>
       <c r="K16">
-        <v>1.035069146280991</v>
+        <v>1.044801035847238</v>
       </c>
       <c r="L16">
-        <v>0.8423208284163736</v>
+        <v>1.01558026841234</v>
       </c>
       <c r="M16">
-        <v>0.8649668773351263</v>
+        <v>1.035078253826986</v>
       </c>
       <c r="N16">
-        <v>0.830620386193326</v>
+        <v>1.005892191695714</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7998575827617684</v>
+        <v>0.9785797966514851</v>
       </c>
       <c r="D17">
-        <v>1.024207392013836</v>
+        <v>1.032245462462689</v>
       </c>
       <c r="E17">
-        <v>0.8281706263104361</v>
+        <v>1.002696867816847</v>
       </c>
       <c r="F17">
-        <v>0.8513088110741021</v>
+        <v>1.022620320174645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036751976777897</v>
+        <v>1.054953085442341</v>
       </c>
       <c r="J17">
-        <v>0.8294424827294676</v>
+        <v>1.006886757936599</v>
       </c>
       <c r="K17">
-        <v>1.035069146280991</v>
+        <v>1.045710785566339</v>
       </c>
       <c r="L17">
-        <v>0.8423208284163736</v>
+        <v>1.016657775829976</v>
       </c>
       <c r="M17">
-        <v>0.8649668773351263</v>
+        <v>1.036243026512162</v>
       </c>
       <c r="N17">
-        <v>0.830620386193326</v>
+        <v>1.006230957376675</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7998575827617684</v>
+        <v>0.9796135095576135</v>
       </c>
       <c r="D18">
-        <v>1.024207392013836</v>
+        <v>1.032963191989289</v>
       </c>
       <c r="E18">
-        <v>0.8281706263104361</v>
+        <v>1.003523355293488</v>
       </c>
       <c r="F18">
-        <v>0.8513088110741021</v>
+        <v>1.023491515665959</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036751976777897</v>
+        <v>1.055239034963211</v>
       </c>
       <c r="J18">
-        <v>0.8294424827294676</v>
+        <v>1.0074694507025</v>
       </c>
       <c r="K18">
-        <v>1.035069146280991</v>
+        <v>1.046236202606472</v>
       </c>
       <c r="L18">
-        <v>0.8423208284163736</v>
+        <v>1.017281546926819</v>
       </c>
       <c r="M18">
-        <v>0.8649668773351263</v>
+        <v>1.036916711501146</v>
       </c>
       <c r="N18">
-        <v>0.830620386193326</v>
+        <v>1.006427050906638</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7998575827617684</v>
+        <v>0.9799647032374594</v>
       </c>
       <c r="D19">
-        <v>1.024207392013836</v>
+        <v>1.033206943049486</v>
       </c>
       <c r="E19">
-        <v>0.8281706263104361</v>
+        <v>1.003804249688252</v>
       </c>
       <c r="F19">
-        <v>0.8513088110741021</v>
+        <v>1.023787489077227</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036751976777897</v>
+        <v>1.055335859341043</v>
       </c>
       <c r="J19">
-        <v>0.8294424827294676</v>
+        <v>1.007667393342244</v>
       </c>
       <c r="K19">
-        <v>1.035069146280991</v>
+        <v>1.046414477874002</v>
       </c>
       <c r="L19">
-        <v>0.8423208284163736</v>
+        <v>1.017493445581253</v>
       </c>
       <c r="M19">
-        <v>0.8649668773351263</v>
+        <v>1.037145462736417</v>
       </c>
       <c r="N19">
-        <v>0.830620386193326</v>
+        <v>1.006493661935532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7998575827617684</v>
+        <v>0.9783890430489168</v>
       </c>
       <c r="D20">
-        <v>1.024207392013836</v>
+        <v>1.032112975901935</v>
       </c>
       <c r="E20">
-        <v>0.8281706263104361</v>
+        <v>1.002544403861428</v>
       </c>
       <c r="F20">
-        <v>0.8513088110741021</v>
+        <v>1.022459553919331</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036751976777897</v>
+        <v>1.054900164705507</v>
       </c>
       <c r="J20">
-        <v>0.8294424827294676</v>
+        <v>1.006779222277239</v>
       </c>
       <c r="K20">
-        <v>1.035069146280991</v>
+        <v>1.045613720305895</v>
       </c>
       <c r="L20">
-        <v>0.8423208284163736</v>
+        <v>1.016542660058363</v>
       </c>
       <c r="M20">
-        <v>0.8649668773351263</v>
+        <v>1.036118650170538</v>
       </c>
       <c r="N20">
-        <v>0.830620386193326</v>
+        <v>1.006194767204486</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7998575827617684</v>
+        <v>0.9731753082472087</v>
       </c>
       <c r="D21">
-        <v>1.024207392013836</v>
+        <v>1.028487329108082</v>
       </c>
       <c r="E21">
-        <v>0.8281706263104361</v>
+        <v>0.9983832854588793</v>
       </c>
       <c r="F21">
-        <v>0.8513088110741021</v>
+        <v>1.018065522220858</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036751976777897</v>
+        <v>1.053436066491759</v>
       </c>
       <c r="J21">
-        <v>0.8294424827294676</v>
+        <v>1.003839005833518</v>
       </c>
       <c r="K21">
-        <v>1.035069146280991</v>
+        <v>1.042948378376942</v>
       </c>
       <c r="L21">
-        <v>0.8423208284163736</v>
+        <v>1.013395351863166</v>
       </c>
       <c r="M21">
-        <v>0.8649668773351263</v>
+        <v>1.03271253442693</v>
       </c>
       <c r="N21">
-        <v>0.830620386193326</v>
+        <v>1.005205132937178</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7998575827617684</v>
+        <v>0.9698240477202945</v>
       </c>
       <c r="D22">
-        <v>1.024207392013836</v>
+        <v>1.026153076736811</v>
       </c>
       <c r="E22">
-        <v>0.8281706263104361</v>
+        <v>0.9957148919803183</v>
       </c>
       <c r="F22">
-        <v>0.8513088110741021</v>
+        <v>1.015241716599205</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036751976777897</v>
+        <v>1.052478172781187</v>
       </c>
       <c r="J22">
-        <v>0.8294424827294676</v>
+        <v>1.001948302324698</v>
       </c>
       <c r="K22">
-        <v>1.035069146280991</v>
+        <v>1.0412236500307</v>
       </c>
       <c r="L22">
-        <v>0.8423208284163736</v>
+        <v>1.011371718350186</v>
       </c>
       <c r="M22">
-        <v>0.8649668773351263</v>
+        <v>1.030517160669185</v>
       </c>
       <c r="N22">
-        <v>0.830620386193326</v>
+        <v>1.004568636671951</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7998575827617684</v>
+        <v>0.9716077742804192</v>
       </c>
       <c r="D23">
-        <v>1.024207392013836</v>
+        <v>1.027395805280875</v>
       </c>
       <c r="E23">
-        <v>0.8281706263104361</v>
+        <v>0.9971345415014032</v>
       </c>
       <c r="F23">
-        <v>0.8513088110741021</v>
+        <v>1.016744611185099</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036751976777897</v>
+        <v>1.052989568933988</v>
       </c>
       <c r="J23">
-        <v>0.8294424827294676</v>
+        <v>1.002954700843796</v>
       </c>
       <c r="K23">
-        <v>1.035069146280991</v>
+        <v>1.042142691687107</v>
       </c>
       <c r="L23">
-        <v>0.8423208284163736</v>
+        <v>1.012448845008401</v>
       </c>
       <c r="M23">
-        <v>0.8649668773351263</v>
+        <v>1.031686191374672</v>
       </c>
       <c r="N23">
-        <v>0.830620386193326</v>
+        <v>1.004907445442322</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7998575827617684</v>
+        <v>0.9784752599267997</v>
       </c>
       <c r="D24">
-        <v>1.024207392013836</v>
+        <v>1.032172858814173</v>
       </c>
       <c r="E24">
-        <v>0.8281706263104361</v>
+        <v>1.002613312645543</v>
       </c>
       <c r="F24">
-        <v>0.8513088110741021</v>
+        <v>1.022532217176839</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036751976777897</v>
+        <v>1.054924089719028</v>
       </c>
       <c r="J24">
-        <v>0.8294424827294676</v>
+        <v>1.006827826653461</v>
       </c>
       <c r="K24">
-        <v>1.035069146280991</v>
+        <v>1.045657596045331</v>
       </c>
       <c r="L24">
-        <v>0.8423208284163736</v>
+        <v>1.016594690485567</v>
       </c>
       <c r="M24">
-        <v>0.8649668773351263</v>
+        <v>1.036174868097841</v>
       </c>
       <c r="N24">
-        <v>0.830620386193326</v>
+        <v>1.006211124621878</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7998575827617684</v>
+        <v>0.9861471690661402</v>
       </c>
       <c r="D25">
-        <v>1.024207392013836</v>
+        <v>1.037489368514127</v>
       </c>
       <c r="E25">
-        <v>0.8281706263104361</v>
+        <v>1.008757648880129</v>
       </c>
       <c r="F25">
-        <v>0.8513088110741021</v>
+        <v>1.028996634247362</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036751976777897</v>
+        <v>1.057011800621825</v>
       </c>
       <c r="J25">
-        <v>0.8294424827294676</v>
+        <v>1.011149902190883</v>
       </c>
       <c r="K25">
-        <v>1.035069146280991</v>
+        <v>1.049532307194157</v>
       </c>
       <c r="L25">
-        <v>0.8423208284163736</v>
+        <v>1.021221517981551</v>
       </c>
       <c r="M25">
-        <v>0.8649668773351263</v>
+        <v>1.04116089356871</v>
       </c>
       <c r="N25">
-        <v>0.830620386193326</v>
+        <v>1.007665341786023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9920476622497882</v>
+        <v>1.024751861797291</v>
       </c>
       <c r="D2">
-        <v>1.041557854001006</v>
+        <v>1.047194623822245</v>
       </c>
       <c r="E2">
-        <v>1.013499822362169</v>
+        <v>1.036794980570205</v>
       </c>
       <c r="F2">
-        <v>1.033963974158557</v>
+        <v>1.051681288936122</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058555663777703</v>
+        <v>1.040296443461219</v>
       </c>
       <c r="J2">
-        <v>1.01446885616425</v>
+        <v>1.029924720049001</v>
       </c>
       <c r="K2">
-        <v>1.05246706129028</v>
+        <v>1.049957942301966</v>
       </c>
       <c r="L2">
-        <v>1.024774233207598</v>
+        <v>1.039587701869937</v>
       </c>
       <c r="M2">
-        <v>1.044969577906767</v>
+        <v>1.054432116978946</v>
       </c>
       <c r="N2">
-        <v>1.008781475499335</v>
+        <v>1.014009659332276</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9962147802086584</v>
+        <v>1.025644096042755</v>
       </c>
       <c r="D3">
-        <v>1.04441726034432</v>
+        <v>1.047768494738549</v>
       </c>
       <c r="E3">
-        <v>1.01685731298284</v>
+        <v>1.037551551465974</v>
       </c>
       <c r="F3">
-        <v>1.037467824542075</v>
+        <v>1.052437306499862</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059608767482645</v>
+        <v>1.040417897962093</v>
       </c>
       <c r="J3">
-        <v>1.016809168726752</v>
+        <v>1.030456290935767</v>
       </c>
       <c r="K3">
-        <v>1.054511688068197</v>
+        <v>1.050344225848831</v>
       </c>
       <c r="L3">
-        <v>1.027278950827224</v>
+        <v>1.040154088676741</v>
       </c>
       <c r="M3">
-        <v>1.047642732840083</v>
+        <v>1.055000975048345</v>
       </c>
       <c r="N3">
-        <v>1.00956811849766</v>
+        <v>1.014186939071788</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9988599042884549</v>
+        <v>1.026222052866931</v>
       </c>
       <c r="D4">
-        <v>1.046225222446041</v>
+        <v>1.048138796009451</v>
       </c>
       <c r="E4">
-        <v>1.018992053908752</v>
+        <v>1.03804164884026</v>
       </c>
       <c r="F4">
-        <v>1.039689446119733</v>
+        <v>1.052926190901132</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060259534045159</v>
+        <v>1.04049432402437</v>
       </c>
       <c r="J4">
-        <v>1.018292818860943</v>
+        <v>1.030800254560706</v>
       </c>
       <c r="K4">
-        <v>1.055796011345559</v>
+        <v>1.050592445620486</v>
       </c>
       <c r="L4">
-        <v>1.028866540422444</v>
+        <v>1.040520461358431</v>
       </c>
       <c r="M4">
-        <v>1.049331338016444</v>
+        <v>1.055368091356972</v>
       </c>
       <c r="N4">
-        <v>1.010066619735083</v>
+        <v>1.014301606395667</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9999600489822194</v>
+        <v>1.026465173370303</v>
       </c>
       <c r="D5">
-        <v>1.046975387137247</v>
+        <v>1.048294221426423</v>
       </c>
       <c r="E5">
-        <v>1.019880720535687</v>
+        <v>1.038247814534767</v>
       </c>
       <c r="F5">
-        <v>1.040612778390182</v>
+        <v>1.053131641598045</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060525879321904</v>
+        <v>1.040525934515635</v>
       </c>
       <c r="J5">
-        <v>1.018909407159612</v>
+        <v>1.030944856095377</v>
       </c>
       <c r="K5">
-        <v>1.056326850539205</v>
+        <v>1.050696380824806</v>
       </c>
       <c r="L5">
-        <v>1.029526243563879</v>
+        <v>1.040674454851715</v>
       </c>
       <c r="M5">
-        <v>1.050031610585494</v>
+        <v>1.055522192216235</v>
       </c>
       <c r="N5">
-        <v>1.010273742149682</v>
+        <v>1.014349801447574</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000144083916374</v>
+        <v>1.026506002979888</v>
       </c>
       <c r="D6">
-        <v>1.047100768482598</v>
+        <v>1.04832030335594</v>
       </c>
       <c r="E6">
-        <v>1.020029424318014</v>
+        <v>1.038282438159575</v>
       </c>
       <c r="F6">
-        <v>1.040767194066691</v>
+        <v>1.053166133135045</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060570178391886</v>
+        <v>1.040531211586067</v>
       </c>
       <c r="J6">
-        <v>1.019012522347831</v>
+        <v>1.030969135249476</v>
       </c>
       <c r="K6">
-        <v>1.056415452541205</v>
+        <v>1.050713807531343</v>
       </c>
       <c r="L6">
-        <v>1.029636563927411</v>
+        <v>1.040700309259454</v>
       </c>
       <c r="M6">
-        <v>1.050148631785533</v>
+        <v>1.055548052601453</v>
       </c>
       <c r="N6">
-        <v>1.010308377322919</v>
+        <v>1.014357892945872</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9988746505679468</v>
+        <v>1.026225300877308</v>
       </c>
       <c r="D7">
-        <v>1.046235284814093</v>
+        <v>1.048140873793719</v>
       </c>
       <c r="E7">
-        <v>1.019003962464402</v>
+        <v>1.038044403132729</v>
       </c>
       <c r="F7">
-        <v>1.039701825165669</v>
+        <v>1.052928936446039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060263121266156</v>
+        <v>1.040494748446213</v>
       </c>
       <c r="J7">
-        <v>1.018301085522374</v>
+        <v>1.030802186738025</v>
       </c>
       <c r="K7">
-        <v>1.055803139941566</v>
+        <v>1.050593836046274</v>
       </c>
       <c r="L7">
-        <v>1.028875385466311</v>
+        <v>1.04052251914512</v>
       </c>
       <c r="M7">
-        <v>1.049340732591806</v>
+        <v>1.055370151385397</v>
       </c>
       <c r="N7">
-        <v>1.010069396843386</v>
+        <v>1.014302250424436</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9934668307872524</v>
+        <v>1.025053267013553</v>
       </c>
       <c r="D8">
-        <v>1.042533088183937</v>
+        <v>1.047388778420787</v>
       </c>
       <c r="E8">
-        <v>1.014642488724941</v>
+        <v>1.037050553226229</v>
       </c>
       <c r="F8">
-        <v>1.035157732250998</v>
+        <v>1.051936851376486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058917978013984</v>
+        <v>1.040337936767355</v>
       </c>
       <c r="J8">
-        <v>1.015266258805347</v>
+        <v>1.03010436585302</v>
       </c>
       <c r="K8">
-        <v>1.053166168835637</v>
+        <v>1.050088846043516</v>
       </c>
       <c r="L8">
-        <v>1.025627704828479</v>
+        <v>1.039779138385611</v>
       </c>
       <c r="M8">
-        <v>1.045881632156026</v>
+        <v>1.054624565520817</v>
       </c>
       <c r="N8">
-        <v>1.009049543473007</v>
+        <v>1.014069580809314</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9835253433287532</v>
+        <v>1.022992814265424</v>
       </c>
       <c r="D9">
-        <v>1.035675424482385</v>
+        <v>1.046055689150575</v>
       </c>
       <c r="E9">
-        <v>1.006655088507489</v>
+        <v>1.035303519777265</v>
       </c>
       <c r="F9">
-        <v>1.026787931436564</v>
+        <v>1.050186397028776</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056307882589472</v>
+        <v>1.040045098722995</v>
       </c>
       <c r="J9">
-        <v>1.009673584814498</v>
+        <v>1.028874781533782</v>
       </c>
       <c r="K9">
-        <v>1.048215045230579</v>
+        <v>1.049185809170243</v>
       </c>
       <c r="L9">
-        <v>1.019641106503104</v>
+        <v>1.038468371238158</v>
       </c>
       <c r="M9">
-        <v>1.039460845636791</v>
+        <v>1.05330338098538</v>
       </c>
       <c r="N9">
-        <v>1.007168698822079</v>
+        <v>1.013659265264153</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9765916772460279</v>
+        <v>1.021622500048253</v>
       </c>
       <c r="D10">
-        <v>1.030864019748725</v>
+        <v>1.045161851142519</v>
       </c>
       <c r="E10">
-        <v>1.00110858617087</v>
+        <v>1.034141800057886</v>
       </c>
       <c r="F10">
-        <v>1.020944727996246</v>
+        <v>1.049018028272015</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054399223889513</v>
+        <v>1.039838837123775</v>
       </c>
       <c r="J10">
-        <v>1.005765832142822</v>
+        <v>1.028055172168267</v>
       </c>
       <c r="K10">
-        <v>1.044697512401738</v>
+        <v>1.048575031729833</v>
       </c>
       <c r="L10">
-        <v>1.015457853558338</v>
+        <v>1.037594050925655</v>
       </c>
       <c r="M10">
-        <v>1.034945843254276</v>
+        <v>1.052417750776899</v>
       </c>
       <c r="N10">
-        <v>1.005853702181058</v>
+        <v>1.013385530576515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9735097975825435</v>
+        <v>1.021029943072578</v>
       </c>
       <c r="D11">
-        <v>1.02872016716297</v>
+        <v>1.044773624755862</v>
       </c>
       <c r="E11">
-        <v>0.9986498892323575</v>
+        <v>1.033639489260708</v>
       </c>
       <c r="F11">
-        <v>1.018347402185579</v>
+        <v>1.048511806851644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053530979291333</v>
+        <v>1.039746920029551</v>
       </c>
       <c r="J11">
-        <v>1.00402768785888</v>
+        <v>1.027700313699183</v>
       </c>
       <c r="K11">
-        <v>1.043120053347259</v>
+        <v>1.048308504878844</v>
       </c>
       <c r="L11">
-        <v>1.013597311657725</v>
+        <v>1.037215365737686</v>
       </c>
       <c r="M11">
-        <v>1.032931414000724</v>
+        <v>1.052033138468846</v>
       </c>
       <c r="N11">
-        <v>1.005268647456178</v>
+        <v>1.013266960451307</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9723524618767001</v>
+        <v>1.020809962235665</v>
       </c>
       <c r="D12">
-        <v>1.027914427505936</v>
+        <v>1.044629243822153</v>
       </c>
       <c r="E12">
-        <v>0.997727646919558</v>
+        <v>1.033453018858629</v>
       </c>
       <c r="F12">
-        <v>1.017372118592983</v>
+        <v>1.048323729247112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05320203317282</v>
+        <v>1.039712387731511</v>
       </c>
       <c r="J12">
-        <v>1.003374821978765</v>
+        <v>1.027568510291721</v>
       </c>
       <c r="K12">
-        <v>1.042525684019451</v>
+        <v>1.048209197799105</v>
       </c>
       <c r="L12">
-        <v>1.012898511500622</v>
+        <v>1.037074691793066</v>
       </c>
       <c r="M12">
-        <v>1.032173896340672</v>
+        <v>1.051890108631809</v>
       </c>
       <c r="N12">
-        <v>1.005048874880496</v>
+        <v>1.013222912459851</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9726012946374473</v>
+        <v>1.020857143366183</v>
       </c>
       <c r="D13">
-        <v>1.028087693080366</v>
+        <v>1.044660221968273</v>
       </c>
       <c r="E13">
-        <v>0.9979258838510555</v>
+        <v>1.03349301237764</v>
       </c>
       <c r="F13">
-        <v>1.017581803501431</v>
+        <v>1.048364074507877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053272887469561</v>
+        <v>1.039719812666432</v>
       </c>
       <c r="J13">
-        <v>1.003515197017478</v>
+        <v>1.027596782242634</v>
       </c>
       <c r="K13">
-        <v>1.042653564226911</v>
+        <v>1.048230513375165</v>
       </c>
       <c r="L13">
-        <v>1.01304876094511</v>
+        <v>1.037104867415469</v>
       </c>
       <c r="M13">
-        <v>1.032336811653771</v>
+        <v>1.05192079657654</v>
       </c>
       <c r="N13">
-        <v>1.00509612980769</v>
+        <v>1.013232361157778</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9734143924760544</v>
+        <v>1.021011756907869</v>
       </c>
       <c r="D14">
-        <v>1.028653758564193</v>
+        <v>1.04476169376798</v>
       </c>
       <c r="E14">
-        <v>0.9985738418701359</v>
+        <v>1.033624073300838</v>
       </c>
       <c r="F14">
-        <v>1.01826700213538</v>
+        <v>1.048496261192146</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053503920891059</v>
+        <v>1.039744073532628</v>
       </c>
       <c r="J14">
-        <v>1.003973871421547</v>
+        <v>1.02768941864248</v>
       </c>
       <c r="K14">
-        <v>1.043071096176659</v>
+        <v>1.048300302379993</v>
       </c>
       <c r="L14">
-        <v>1.013539707896436</v>
+        <v>1.037203737850767</v>
       </c>
       <c r="M14">
-        <v>1.032868988504392</v>
+        <v>1.052021318988263</v>
       </c>
       <c r="N14">
-        <v>1.005250531747105</v>
+        <v>1.013263319545814</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9739136810808818</v>
+        <v>1.021107035513804</v>
       </c>
       <c r="D15">
-        <v>1.029001272078216</v>
+        <v>1.044824190588095</v>
       </c>
       <c r="E15">
-        <v>0.9989718686590421</v>
+        <v>1.033704838916426</v>
       </c>
       <c r="F15">
-        <v>1.018687768228753</v>
+        <v>1.048577699947769</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053645409573258</v>
+        <v>1.039758969780694</v>
       </c>
       <c r="J15">
-        <v>1.004255506301837</v>
+        <v>1.02774649592492</v>
       </c>
       <c r="K15">
-        <v>1.043327225986637</v>
+        <v>1.048343261043061</v>
       </c>
       <c r="L15">
-        <v>1.013841164514507</v>
+        <v>1.037264653455387</v>
       </c>
       <c r="M15">
-        <v>1.033195641343107</v>
+        <v>1.052083231997058</v>
       </c>
       <c r="N15">
-        <v>1.00534533500249</v>
+        <v>1.013282393278774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.976794481948133</v>
+        <v>1.021661843029556</v>
       </c>
       <c r="D16">
-        <v>1.031004998123404</v>
+        <v>1.045187591595241</v>
       </c>
       <c r="E16">
-        <v>1.00127052629654</v>
+        <v>1.034175152125909</v>
       </c>
       <c r="F16">
-        <v>1.021115652599108</v>
+        <v>1.049051618172199</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054455952346027</v>
+        <v>1.039844882579255</v>
       </c>
       <c r="J16">
-        <v>1.005880189613724</v>
+        <v>1.028078723850685</v>
       </c>
       <c r="K16">
-        <v>1.044801035847238</v>
+        <v>1.048592677069847</v>
       </c>
       <c r="L16">
-        <v>1.01558026841234</v>
+        <v>1.037619181056408</v>
       </c>
       <c r="M16">
-        <v>1.035078253826986</v>
+        <v>1.052443252609866</v>
       </c>
       <c r="N16">
-        <v>1.005892191695714</v>
+        <v>1.013393398853268</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9785797966514851</v>
+        <v>1.022010073723221</v>
       </c>
       <c r="D17">
-        <v>1.032245462462689</v>
+        <v>1.045415226782425</v>
       </c>
       <c r="E17">
-        <v>1.002696867816847</v>
+        <v>1.034470361614441</v>
       </c>
       <c r="F17">
-        <v>1.022620320174645</v>
+        <v>1.049348813070028</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054953085442341</v>
+        <v>1.039898076895942</v>
       </c>
       <c r="J17">
-        <v>1.006886757936599</v>
+        <v>1.028287132582827</v>
       </c>
       <c r="K17">
-        <v>1.045710785566339</v>
+        <v>1.048748579915069</v>
       </c>
       <c r="L17">
-        <v>1.016657775829976</v>
+        <v>1.037841541432783</v>
       </c>
       <c r="M17">
-        <v>1.036243026512162</v>
+        <v>1.05266878318934</v>
       </c>
       <c r="N17">
-        <v>1.006230957376675</v>
+        <v>1.013463018985682</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9796135095576135</v>
+        <v>1.022213267715461</v>
       </c>
       <c r="D18">
-        <v>1.032963191989289</v>
+        <v>1.045547887703018</v>
       </c>
       <c r="E18">
-        <v>1.003523355293488</v>
+        <v>1.034642621809614</v>
       </c>
       <c r="F18">
-        <v>1.023491515665959</v>
+        <v>1.049522131768135</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055239034963211</v>
+        <v>1.039928852875454</v>
       </c>
       <c r="J18">
-        <v>1.0074694507025</v>
+        <v>1.028408697440041</v>
       </c>
       <c r="K18">
-        <v>1.046236202606472</v>
+        <v>1.048839316896248</v>
       </c>
       <c r="L18">
-        <v>1.017281546926819</v>
+        <v>1.03797123085761</v>
       </c>
       <c r="M18">
-        <v>1.036916711501146</v>
+        <v>1.052800222345003</v>
       </c>
       <c r="N18">
-        <v>1.006427050906638</v>
+        <v>1.013503623227701</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9799647032374594</v>
+        <v>1.022282564623314</v>
       </c>
       <c r="D19">
-        <v>1.033206943049486</v>
+        <v>1.045593102103509</v>
       </c>
       <c r="E19">
-        <v>1.003804249688252</v>
+        <v>1.034701369817409</v>
       </c>
       <c r="F19">
-        <v>1.023787489077227</v>
+        <v>1.049581223801307</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055335859341043</v>
+        <v>1.039939304019753</v>
       </c>
       <c r="J19">
-        <v>1.007667393342244</v>
+        <v>1.02845014848529</v>
       </c>
       <c r="K19">
-        <v>1.046414477874002</v>
+        <v>1.048870222136738</v>
       </c>
       <c r="L19">
-        <v>1.017493445581253</v>
+        <v>1.03801544992465</v>
       </c>
       <c r="M19">
-        <v>1.037145462736417</v>
+        <v>1.052845021152784</v>
       </c>
       <c r="N19">
-        <v>1.006493661935532</v>
+        <v>1.013517467533024</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9783890430489168</v>
+        <v>1.021972703899785</v>
       </c>
       <c r="D20">
-        <v>1.032112975901935</v>
+        <v>1.045390815542826</v>
       </c>
       <c r="E20">
-        <v>1.002544403861428</v>
+        <v>1.034438681228963</v>
       </c>
       <c r="F20">
-        <v>1.022459553919331</v>
+        <v>1.049316929963534</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054900164705507</v>
+        <v>1.039892395641145</v>
       </c>
       <c r="J20">
-        <v>1.006779222277239</v>
+        <v>1.028264771920665</v>
       </c>
       <c r="K20">
-        <v>1.045613720305895</v>
+        <v>1.048731873535215</v>
       </c>
       <c r="L20">
-        <v>1.016542660058363</v>
+        <v>1.037817685253568</v>
       </c>
       <c r="M20">
-        <v>1.036118650170538</v>
+        <v>1.052644597155104</v>
       </c>
       <c r="N20">
-        <v>1.006194767204486</v>
+        <v>1.013455549815381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9731753082472087</v>
+        <v>1.020966223717136</v>
       </c>
       <c r="D21">
-        <v>1.028487329108082</v>
+        <v>1.044731817703045</v>
       </c>
       <c r="E21">
-        <v>0.9983832854588793</v>
+        <v>1.033585476069311</v>
       </c>
       <c r="F21">
-        <v>1.018065522220858</v>
+        <v>1.048457336717568</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053436066491759</v>
+        <v>1.039736940074825</v>
       </c>
       <c r="J21">
-        <v>1.003839005833518</v>
+        <v>1.027662139333925</v>
       </c>
       <c r="K21">
-        <v>1.042948378376942</v>
+        <v>1.048279759721886</v>
       </c>
       <c r="L21">
-        <v>1.013395351863166</v>
+        <v>1.037174623330464</v>
       </c>
       <c r="M21">
-        <v>1.03271253442693</v>
+        <v>1.051991722257995</v>
       </c>
       <c r="N21">
-        <v>1.005205132937178</v>
+        <v>1.013254203227987</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9698240477202945</v>
+        <v>1.020334111591194</v>
       </c>
       <c r="D22">
-        <v>1.026153076736811</v>
+        <v>1.044316460275621</v>
       </c>
       <c r="E22">
-        <v>0.9957148919803183</v>
+        <v>1.033049670549707</v>
       </c>
       <c r="F22">
-        <v>1.015241716599205</v>
+        <v>1.047916620325536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052478172781187</v>
+        <v>1.039636941966399</v>
       </c>
       <c r="J22">
-        <v>1.001948302324698</v>
+        <v>1.027283280379571</v>
       </c>
       <c r="K22">
-        <v>1.0412236500307</v>
+        <v>1.047993721673283</v>
       </c>
       <c r="L22">
-        <v>1.011371718350186</v>
+        <v>1.036770227921581</v>
       </c>
       <c r="M22">
-        <v>1.030517160669185</v>
+        <v>1.051580264540616</v>
       </c>
       <c r="N22">
-        <v>1.004568636671951</v>
+        <v>1.013127575475306</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9716077742804192</v>
+        <v>1.020669139222316</v>
       </c>
       <c r="D23">
-        <v>1.027395805280875</v>
+        <v>1.044536744994369</v>
       </c>
       <c r="E23">
-        <v>0.9971345415014032</v>
+        <v>1.033333650080498</v>
       </c>
       <c r="F23">
-        <v>1.016744611185099</v>
+        <v>1.048203287867311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052989568933988</v>
+        <v>1.039690166433096</v>
       </c>
       <c r="J23">
-        <v>1.002954700843796</v>
+        <v>1.027484116498282</v>
       </c>
       <c r="K23">
-        <v>1.042142691687107</v>
+        <v>1.048145523623756</v>
       </c>
       <c r="L23">
-        <v>1.012448845008401</v>
+        <v>1.036984612389439</v>
       </c>
       <c r="M23">
-        <v>1.031686191374672</v>
+        <v>1.051798477329307</v>
       </c>
       <c r="N23">
-        <v>1.004907445442322</v>
+        <v>1.013194706245671</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9784752599267997</v>
+        <v>1.021989589476875</v>
       </c>
       <c r="D24">
-        <v>1.032172858814173</v>
+        <v>1.045401846286275</v>
       </c>
       <c r="E24">
-        <v>1.002613312645543</v>
+        <v>1.034452996016962</v>
       </c>
       <c r="F24">
-        <v>1.022532217176839</v>
+        <v>1.049331336660058</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054924089719028</v>
+        <v>1.039894963532415</v>
       </c>
       <c r="J24">
-        <v>1.006827826653461</v>
+        <v>1.028274875730477</v>
       </c>
       <c r="K24">
-        <v>1.045657596045331</v>
+        <v>1.048739423042688</v>
       </c>
       <c r="L24">
-        <v>1.016594690485567</v>
+        <v>1.037828464863949</v>
       </c>
       <c r="M24">
-        <v>1.036174868097841</v>
+        <v>1.05265552611992</v>
       </c>
       <c r="N24">
-        <v>1.006211124621878</v>
+        <v>1.013458924824347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9861471690661402</v>
+        <v>1.023524911191124</v>
       </c>
       <c r="D25">
-        <v>1.037489368514127</v>
+        <v>1.046401235354411</v>
       </c>
       <c r="E25">
-        <v>1.008757648880129</v>
+        <v>1.035754654256371</v>
       </c>
       <c r="F25">
-        <v>1.028996634247362</v>
+        <v>1.050639187479803</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057011800621825</v>
+        <v>1.040122754528336</v>
       </c>
       <c r="J25">
-        <v>1.011149902190883</v>
+        <v>1.029192643629702</v>
       </c>
       <c r="K25">
-        <v>1.049532307194157</v>
+        <v>1.049420816484417</v>
       </c>
       <c r="L25">
-        <v>1.021221517981551</v>
+        <v>1.03880732605558</v>
       </c>
       <c r="M25">
-        <v>1.04116089356871</v>
+        <v>1.053645800223409</v>
       </c>
       <c r="N25">
-        <v>1.007665341786023</v>
+        <v>1.013765377190566</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024751861797291</v>
+        <v>0.9920476622497881</v>
       </c>
       <c r="D2">
-        <v>1.047194623822245</v>
+        <v>1.041557854001006</v>
       </c>
       <c r="E2">
-        <v>1.036794980570205</v>
+        <v>1.013499822362169</v>
       </c>
       <c r="F2">
-        <v>1.051681288936122</v>
+        <v>1.033963974158557</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040296443461219</v>
+        <v>1.058555663777703</v>
       </c>
       <c r="J2">
-        <v>1.029924720049001</v>
+        <v>1.01446885616425</v>
       </c>
       <c r="K2">
-        <v>1.049957942301966</v>
+        <v>1.05246706129028</v>
       </c>
       <c r="L2">
-        <v>1.039587701869937</v>
+        <v>1.024774233207598</v>
       </c>
       <c r="M2">
-        <v>1.054432116978946</v>
+        <v>1.044969577906767</v>
       </c>
       <c r="N2">
-        <v>1.014009659332276</v>
+        <v>1.008781475499335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025644096042755</v>
+        <v>0.9962147802086583</v>
       </c>
       <c r="D3">
-        <v>1.047768494738549</v>
+        <v>1.04441726034432</v>
       </c>
       <c r="E3">
-        <v>1.037551551465974</v>
+        <v>1.01685731298284</v>
       </c>
       <c r="F3">
-        <v>1.052437306499862</v>
+        <v>1.037467824542075</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040417897962093</v>
+        <v>1.059608767482645</v>
       </c>
       <c r="J3">
-        <v>1.030456290935767</v>
+        <v>1.016809168726751</v>
       </c>
       <c r="K3">
-        <v>1.050344225848831</v>
+        <v>1.054511688068197</v>
       </c>
       <c r="L3">
-        <v>1.040154088676741</v>
+        <v>1.027278950827224</v>
       </c>
       <c r="M3">
-        <v>1.055000975048345</v>
+        <v>1.047642732840083</v>
       </c>
       <c r="N3">
-        <v>1.014186939071788</v>
+        <v>1.00956811849766</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026222052866931</v>
+        <v>0.9988599042884556</v>
       </c>
       <c r="D4">
-        <v>1.048138796009451</v>
+        <v>1.046225222446042</v>
       </c>
       <c r="E4">
-        <v>1.03804164884026</v>
+        <v>1.018992053908753</v>
       </c>
       <c r="F4">
-        <v>1.052926190901132</v>
+        <v>1.039689446119733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04049432402437</v>
+        <v>1.06025953404516</v>
       </c>
       <c r="J4">
-        <v>1.030800254560706</v>
+        <v>1.018292818860944</v>
       </c>
       <c r="K4">
-        <v>1.050592445620486</v>
+        <v>1.055796011345559</v>
       </c>
       <c r="L4">
-        <v>1.040520461358431</v>
+        <v>1.028866540422444</v>
       </c>
       <c r="M4">
-        <v>1.055368091356972</v>
+        <v>1.049331338016444</v>
       </c>
       <c r="N4">
-        <v>1.014301606395667</v>
+        <v>1.010066619735083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026465173370303</v>
+        <v>0.9999600489822195</v>
       </c>
       <c r="D5">
-        <v>1.048294221426423</v>
+        <v>1.046975387137247</v>
       </c>
       <c r="E5">
-        <v>1.038247814534767</v>
+        <v>1.019880720535687</v>
       </c>
       <c r="F5">
-        <v>1.053131641598045</v>
+        <v>1.040612778390182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040525934515635</v>
+        <v>1.060525879321904</v>
       </c>
       <c r="J5">
-        <v>1.030944856095377</v>
+        <v>1.018909407159612</v>
       </c>
       <c r="K5">
-        <v>1.050696380824806</v>
+        <v>1.056326850539205</v>
       </c>
       <c r="L5">
-        <v>1.040674454851715</v>
+        <v>1.029526243563879</v>
       </c>
       <c r="M5">
-        <v>1.055522192216235</v>
+        <v>1.050031610585494</v>
       </c>
       <c r="N5">
-        <v>1.014349801447574</v>
+        <v>1.010273742149682</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026506002979888</v>
+        <v>1.000144083916374</v>
       </c>
       <c r="D6">
-        <v>1.04832030335594</v>
+        <v>1.047100768482599</v>
       </c>
       <c r="E6">
-        <v>1.038282438159575</v>
+        <v>1.020029424318015</v>
       </c>
       <c r="F6">
-        <v>1.053166133135045</v>
+        <v>1.040767194066692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040531211586067</v>
+        <v>1.060570178391887</v>
       </c>
       <c r="J6">
-        <v>1.030969135249476</v>
+        <v>1.019012522347831</v>
       </c>
       <c r="K6">
-        <v>1.050713807531343</v>
+        <v>1.056415452541206</v>
       </c>
       <c r="L6">
-        <v>1.040700309259454</v>
+        <v>1.029636563927411</v>
       </c>
       <c r="M6">
-        <v>1.055548052601453</v>
+        <v>1.050148631785534</v>
       </c>
       <c r="N6">
-        <v>1.014357892945872</v>
+        <v>1.010308377322919</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026225300877308</v>
+        <v>0.9988746505679467</v>
       </c>
       <c r="D7">
-        <v>1.048140873793719</v>
+        <v>1.046235284814093</v>
       </c>
       <c r="E7">
-        <v>1.038044403132729</v>
+        <v>1.019003962464403</v>
       </c>
       <c r="F7">
-        <v>1.052928936446039</v>
+        <v>1.039701825165669</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040494748446213</v>
+        <v>1.060263121266156</v>
       </c>
       <c r="J7">
-        <v>1.030802186738025</v>
+        <v>1.018301085522374</v>
       </c>
       <c r="K7">
-        <v>1.050593836046274</v>
+        <v>1.055803139941566</v>
       </c>
       <c r="L7">
-        <v>1.04052251914512</v>
+        <v>1.028875385466311</v>
       </c>
       <c r="M7">
-        <v>1.055370151385397</v>
+        <v>1.049340732591806</v>
       </c>
       <c r="N7">
-        <v>1.014302250424436</v>
+        <v>1.010069396843386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025053267013553</v>
+        <v>0.9934668307872522</v>
       </c>
       <c r="D8">
-        <v>1.047388778420787</v>
+        <v>1.042533088183937</v>
       </c>
       <c r="E8">
-        <v>1.037050553226229</v>
+        <v>1.014642488724941</v>
       </c>
       <c r="F8">
-        <v>1.051936851376486</v>
+        <v>1.035157732250998</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040337936767355</v>
+        <v>1.058917978013984</v>
       </c>
       <c r="J8">
-        <v>1.03010436585302</v>
+        <v>1.015266258805347</v>
       </c>
       <c r="K8">
-        <v>1.050088846043516</v>
+        <v>1.053166168835637</v>
       </c>
       <c r="L8">
-        <v>1.039779138385611</v>
+        <v>1.025627704828479</v>
       </c>
       <c r="M8">
-        <v>1.054624565520817</v>
+        <v>1.045881632156026</v>
       </c>
       <c r="N8">
-        <v>1.014069580809314</v>
+        <v>1.009049543473007</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022992814265424</v>
+        <v>0.9835253433287532</v>
       </c>
       <c r="D9">
-        <v>1.046055689150575</v>
+        <v>1.035675424482385</v>
       </c>
       <c r="E9">
-        <v>1.035303519777265</v>
+        <v>1.006655088507489</v>
       </c>
       <c r="F9">
-        <v>1.050186397028776</v>
+        <v>1.026787931436564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040045098722995</v>
+        <v>1.056307882589472</v>
       </c>
       <c r="J9">
-        <v>1.028874781533782</v>
+        <v>1.009673584814499</v>
       </c>
       <c r="K9">
-        <v>1.049185809170243</v>
+        <v>1.048215045230579</v>
       </c>
       <c r="L9">
-        <v>1.038468371238158</v>
+        <v>1.019641106503104</v>
       </c>
       <c r="M9">
-        <v>1.05330338098538</v>
+        <v>1.039460845636791</v>
       </c>
       <c r="N9">
-        <v>1.013659265264153</v>
+        <v>1.00716869882208</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021622500048253</v>
+        <v>0.9765916772460279</v>
       </c>
       <c r="D10">
-        <v>1.045161851142519</v>
+        <v>1.030864019748725</v>
       </c>
       <c r="E10">
-        <v>1.034141800057886</v>
+        <v>1.00110858617087</v>
       </c>
       <c r="F10">
-        <v>1.049018028272015</v>
+        <v>1.020944727996246</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039838837123775</v>
+        <v>1.054399223889513</v>
       </c>
       <c r="J10">
-        <v>1.028055172168267</v>
+        <v>1.005765832142822</v>
       </c>
       <c r="K10">
-        <v>1.048575031729833</v>
+        <v>1.044697512401737</v>
       </c>
       <c r="L10">
-        <v>1.037594050925655</v>
+        <v>1.015457853558338</v>
       </c>
       <c r="M10">
-        <v>1.052417750776899</v>
+        <v>1.034945843254276</v>
       </c>
       <c r="N10">
-        <v>1.013385530576515</v>
+        <v>1.005853702181058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021029943072578</v>
+        <v>0.9735097975825433</v>
       </c>
       <c r="D11">
-        <v>1.044773624755862</v>
+        <v>1.02872016716297</v>
       </c>
       <c r="E11">
-        <v>1.033639489260708</v>
+        <v>0.9986498892323574</v>
       </c>
       <c r="F11">
-        <v>1.048511806851644</v>
+        <v>1.018347402185579</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039746920029551</v>
+        <v>1.053530979291332</v>
       </c>
       <c r="J11">
-        <v>1.027700313699183</v>
+        <v>1.00402768785888</v>
       </c>
       <c r="K11">
-        <v>1.048308504878844</v>
+        <v>1.043120053347259</v>
       </c>
       <c r="L11">
-        <v>1.037215365737686</v>
+        <v>1.013597311657725</v>
       </c>
       <c r="M11">
-        <v>1.052033138468846</v>
+        <v>1.032931414000724</v>
       </c>
       <c r="N11">
-        <v>1.013266960451307</v>
+        <v>1.005268647456178</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020809962235665</v>
+        <v>0.9723524618767002</v>
       </c>
       <c r="D12">
-        <v>1.044629243822153</v>
+        <v>1.027914427505937</v>
       </c>
       <c r="E12">
-        <v>1.033453018858629</v>
+        <v>0.9977276469195581</v>
       </c>
       <c r="F12">
-        <v>1.048323729247112</v>
+        <v>1.017372118592983</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039712387731511</v>
+        <v>1.05320203317282</v>
       </c>
       <c r="J12">
-        <v>1.027568510291721</v>
+        <v>1.003374821978765</v>
       </c>
       <c r="K12">
-        <v>1.048209197799105</v>
+        <v>1.042525684019451</v>
       </c>
       <c r="L12">
-        <v>1.037074691793066</v>
+        <v>1.012898511500623</v>
       </c>
       <c r="M12">
-        <v>1.051890108631809</v>
+        <v>1.032173896340673</v>
       </c>
       <c r="N12">
-        <v>1.013222912459851</v>
+        <v>1.005048874880497</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020857143366183</v>
+        <v>0.9726012946374477</v>
       </c>
       <c r="D13">
-        <v>1.044660221968273</v>
+        <v>1.028087693080366</v>
       </c>
       <c r="E13">
-        <v>1.03349301237764</v>
+        <v>0.9979258838510557</v>
       </c>
       <c r="F13">
-        <v>1.048364074507877</v>
+        <v>1.017581803501432</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039719812666432</v>
+        <v>1.053272887469561</v>
       </c>
       <c r="J13">
-        <v>1.027596782242634</v>
+        <v>1.003515197017478</v>
       </c>
       <c r="K13">
-        <v>1.048230513375165</v>
+        <v>1.042653564226912</v>
       </c>
       <c r="L13">
-        <v>1.037104867415469</v>
+        <v>1.01304876094511</v>
       </c>
       <c r="M13">
-        <v>1.05192079657654</v>
+        <v>1.032336811653771</v>
       </c>
       <c r="N13">
-        <v>1.013232361157778</v>
+        <v>1.00509612980769</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021011756907869</v>
+        <v>0.9734143924760541</v>
       </c>
       <c r="D14">
-        <v>1.04476169376798</v>
+        <v>1.028653758564193</v>
       </c>
       <c r="E14">
-        <v>1.033624073300838</v>
+        <v>0.9985738418701356</v>
       </c>
       <c r="F14">
-        <v>1.048496261192146</v>
+        <v>1.01826700213538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039744073532628</v>
+        <v>1.053503920891058</v>
       </c>
       <c r="J14">
-        <v>1.02768941864248</v>
+        <v>1.003973871421547</v>
       </c>
       <c r="K14">
-        <v>1.048300302379993</v>
+        <v>1.043071096176659</v>
       </c>
       <c r="L14">
-        <v>1.037203737850767</v>
+        <v>1.013539707896436</v>
       </c>
       <c r="M14">
-        <v>1.052021318988263</v>
+        <v>1.032868988504392</v>
       </c>
       <c r="N14">
-        <v>1.013263319545814</v>
+        <v>1.005250531747105</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021107035513804</v>
+        <v>0.9739136810808819</v>
       </c>
       <c r="D15">
-        <v>1.044824190588095</v>
+        <v>1.029001272078216</v>
       </c>
       <c r="E15">
-        <v>1.033704838916426</v>
+        <v>0.9989718686590422</v>
       </c>
       <c r="F15">
-        <v>1.048577699947769</v>
+        <v>1.018687768228753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039758969780694</v>
+        <v>1.053645409573258</v>
       </c>
       <c r="J15">
-        <v>1.02774649592492</v>
+        <v>1.004255506301837</v>
       </c>
       <c r="K15">
-        <v>1.048343261043061</v>
+        <v>1.043327225986636</v>
       </c>
       <c r="L15">
-        <v>1.037264653455387</v>
+        <v>1.013841164514507</v>
       </c>
       <c r="M15">
-        <v>1.052083231997058</v>
+        <v>1.033195641343107</v>
       </c>
       <c r="N15">
-        <v>1.013282393278774</v>
+        <v>1.005345335002491</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021661843029556</v>
+        <v>0.9767944819481333</v>
       </c>
       <c r="D16">
-        <v>1.045187591595241</v>
+        <v>1.031004998123405</v>
       </c>
       <c r="E16">
-        <v>1.034175152125909</v>
+        <v>1.00127052629654</v>
       </c>
       <c r="F16">
-        <v>1.049051618172199</v>
+        <v>1.021115652599108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039844882579255</v>
+        <v>1.054455952346027</v>
       </c>
       <c r="J16">
-        <v>1.028078723850685</v>
+        <v>1.005880189613724</v>
       </c>
       <c r="K16">
-        <v>1.048592677069847</v>
+        <v>1.044801035847238</v>
       </c>
       <c r="L16">
-        <v>1.037619181056408</v>
+        <v>1.01558026841234</v>
       </c>
       <c r="M16">
-        <v>1.052443252609866</v>
+        <v>1.035078253826986</v>
       </c>
       <c r="N16">
-        <v>1.013393398853268</v>
+        <v>1.005892191695714</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022010073723221</v>
+        <v>0.9785797966514844</v>
       </c>
       <c r="D17">
-        <v>1.045415226782425</v>
+        <v>1.032245462462689</v>
       </c>
       <c r="E17">
-        <v>1.034470361614441</v>
+        <v>1.002696867816846</v>
       </c>
       <c r="F17">
-        <v>1.049348813070028</v>
+        <v>1.022620320174645</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039898076895942</v>
+        <v>1.054953085442341</v>
       </c>
       <c r="J17">
-        <v>1.028287132582827</v>
+        <v>1.006886757936599</v>
       </c>
       <c r="K17">
-        <v>1.048748579915069</v>
+        <v>1.045710785566339</v>
       </c>
       <c r="L17">
-        <v>1.037841541432783</v>
+        <v>1.016657775829976</v>
       </c>
       <c r="M17">
-        <v>1.05266878318934</v>
+        <v>1.036243026512161</v>
       </c>
       <c r="N17">
-        <v>1.013463018985682</v>
+        <v>1.006230957376675</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022213267715461</v>
+        <v>0.9796135095576136</v>
       </c>
       <c r="D18">
-        <v>1.045547887703018</v>
+        <v>1.032963191989289</v>
       </c>
       <c r="E18">
-        <v>1.034642621809614</v>
+        <v>1.003523355293488</v>
       </c>
       <c r="F18">
-        <v>1.049522131768135</v>
+        <v>1.023491515665959</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039928852875454</v>
+        <v>1.055239034963211</v>
       </c>
       <c r="J18">
-        <v>1.028408697440041</v>
+        <v>1.0074694507025</v>
       </c>
       <c r="K18">
-        <v>1.048839316896248</v>
+        <v>1.046236202606472</v>
       </c>
       <c r="L18">
-        <v>1.03797123085761</v>
+        <v>1.017281546926819</v>
       </c>
       <c r="M18">
-        <v>1.052800222345003</v>
+        <v>1.036916711501146</v>
       </c>
       <c r="N18">
-        <v>1.013503623227701</v>
+        <v>1.006427050906638</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022282564623314</v>
+        <v>0.979964703237459</v>
       </c>
       <c r="D19">
-        <v>1.045593102103509</v>
+        <v>1.033206943049485</v>
       </c>
       <c r="E19">
-        <v>1.034701369817409</v>
+        <v>1.003804249688252</v>
       </c>
       <c r="F19">
-        <v>1.049581223801307</v>
+        <v>1.023787489077226</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039939304019753</v>
+        <v>1.055335859341042</v>
       </c>
       <c r="J19">
-        <v>1.02845014848529</v>
+        <v>1.007667393342243</v>
       </c>
       <c r="K19">
-        <v>1.048870222136738</v>
+        <v>1.046414477874001</v>
       </c>
       <c r="L19">
-        <v>1.03801544992465</v>
+        <v>1.017493445581253</v>
       </c>
       <c r="M19">
-        <v>1.052845021152784</v>
+        <v>1.037145462736416</v>
       </c>
       <c r="N19">
-        <v>1.013517467533024</v>
+        <v>1.006493661935532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021972703899785</v>
+        <v>0.9783890430489161</v>
       </c>
       <c r="D20">
-        <v>1.045390815542826</v>
+        <v>1.032112975901935</v>
       </c>
       <c r="E20">
-        <v>1.034438681228963</v>
+        <v>1.002544403861427</v>
       </c>
       <c r="F20">
-        <v>1.049316929963534</v>
+        <v>1.022459553919331</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039892395641145</v>
+        <v>1.054900164705507</v>
       </c>
       <c r="J20">
-        <v>1.028264771920665</v>
+        <v>1.006779222277238</v>
       </c>
       <c r="K20">
-        <v>1.048731873535215</v>
+        <v>1.045613720305895</v>
       </c>
       <c r="L20">
-        <v>1.037817685253568</v>
+        <v>1.016542660058362</v>
       </c>
       <c r="M20">
-        <v>1.052644597155104</v>
+        <v>1.036118650170538</v>
       </c>
       <c r="N20">
-        <v>1.013455549815381</v>
+        <v>1.006194767204486</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020966223717136</v>
+        <v>0.9731753082472087</v>
       </c>
       <c r="D21">
-        <v>1.044731817703045</v>
+        <v>1.028487329108082</v>
       </c>
       <c r="E21">
-        <v>1.033585476069311</v>
+        <v>0.9983832854588793</v>
       </c>
       <c r="F21">
-        <v>1.048457336717568</v>
+        <v>1.018065522220857</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039736940074825</v>
+        <v>1.053436066491759</v>
       </c>
       <c r="J21">
-        <v>1.027662139333925</v>
+        <v>1.003839005833518</v>
       </c>
       <c r="K21">
-        <v>1.048279759721886</v>
+        <v>1.042948378376942</v>
       </c>
       <c r="L21">
-        <v>1.037174623330464</v>
+        <v>1.013395351863166</v>
       </c>
       <c r="M21">
-        <v>1.051991722257995</v>
+        <v>1.03271253442693</v>
       </c>
       <c r="N21">
-        <v>1.013254203227987</v>
+        <v>1.005205132937178</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020334111591194</v>
+        <v>0.9698240477202944</v>
       </c>
       <c r="D22">
-        <v>1.044316460275621</v>
+        <v>1.026153076736811</v>
       </c>
       <c r="E22">
-        <v>1.033049670549707</v>
+        <v>0.9957148919803182</v>
       </c>
       <c r="F22">
-        <v>1.047916620325536</v>
+        <v>1.015241716599204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039636941966399</v>
+        <v>1.052478172781187</v>
       </c>
       <c r="J22">
-        <v>1.027283280379571</v>
+        <v>1.001948302324698</v>
       </c>
       <c r="K22">
-        <v>1.047993721673283</v>
+        <v>1.0412236500307</v>
       </c>
       <c r="L22">
-        <v>1.036770227921581</v>
+        <v>1.011371718350186</v>
       </c>
       <c r="M22">
-        <v>1.051580264540616</v>
+        <v>1.030517160669185</v>
       </c>
       <c r="N22">
-        <v>1.013127575475306</v>
+        <v>1.004568636671951</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020669139222316</v>
+        <v>0.9716077742804194</v>
       </c>
       <c r="D23">
-        <v>1.044536744994369</v>
+        <v>1.027395805280876</v>
       </c>
       <c r="E23">
-        <v>1.033333650080498</v>
+        <v>0.9971345415014033</v>
       </c>
       <c r="F23">
-        <v>1.048203287867311</v>
+        <v>1.0167446111851</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039690166433096</v>
+        <v>1.052989568933988</v>
       </c>
       <c r="J23">
-        <v>1.027484116498282</v>
+        <v>1.002954700843796</v>
       </c>
       <c r="K23">
-        <v>1.048145523623756</v>
+        <v>1.042142691687108</v>
       </c>
       <c r="L23">
-        <v>1.036984612389439</v>
+        <v>1.012448845008401</v>
       </c>
       <c r="M23">
-        <v>1.051798477329307</v>
+        <v>1.031686191374672</v>
       </c>
       <c r="N23">
-        <v>1.013194706245671</v>
+        <v>1.004907445442322</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021989589476875</v>
+        <v>0.9784752599267996</v>
       </c>
       <c r="D24">
-        <v>1.045401846286275</v>
+        <v>1.032172858814174</v>
       </c>
       <c r="E24">
-        <v>1.034452996016962</v>
+        <v>1.002613312645543</v>
       </c>
       <c r="F24">
-        <v>1.049331336660058</v>
+        <v>1.022532217176839</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039894963532415</v>
+        <v>1.054924089719028</v>
       </c>
       <c r="J24">
-        <v>1.028274875730477</v>
+        <v>1.006827826653461</v>
       </c>
       <c r="K24">
-        <v>1.048739423042688</v>
+        <v>1.045657596045331</v>
       </c>
       <c r="L24">
-        <v>1.037828464863949</v>
+        <v>1.016594690485567</v>
       </c>
       <c r="M24">
-        <v>1.05265552611992</v>
+        <v>1.036174868097841</v>
       </c>
       <c r="N24">
-        <v>1.013458924824347</v>
+        <v>1.006211124621879</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023524911191124</v>
+        <v>0.9861471690661406</v>
       </c>
       <c r="D25">
-        <v>1.046401235354411</v>
+        <v>1.037489368514127</v>
       </c>
       <c r="E25">
-        <v>1.035754654256371</v>
+        <v>1.00875764888013</v>
       </c>
       <c r="F25">
-        <v>1.050639187479803</v>
+        <v>1.028996634247362</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040122754528336</v>
+        <v>1.057011800621825</v>
       </c>
       <c r="J25">
-        <v>1.029192643629702</v>
+        <v>1.011149902190883</v>
       </c>
       <c r="K25">
-        <v>1.049420816484417</v>
+        <v>1.049532307194157</v>
       </c>
       <c r="L25">
-        <v>1.03880732605558</v>
+        <v>1.021221517981551</v>
       </c>
       <c r="M25">
-        <v>1.053645800223409</v>
+        <v>1.04116089356871</v>
       </c>
       <c r="N25">
-        <v>1.013765377190566</v>
+        <v>1.007665341786024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9920476622497881</v>
+        <v>0.9501231902347155</v>
       </c>
       <c r="D2">
-        <v>1.041557854001006</v>
+        <v>1.035594600035939</v>
       </c>
       <c r="E2">
-        <v>1.013499822362169</v>
+        <v>0.9626456114174764</v>
       </c>
       <c r="F2">
-        <v>1.033963974158557</v>
+        <v>1.006616683943592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058555663777703</v>
+        <v>1.048890919004574</v>
       </c>
       <c r="J2">
-        <v>1.01446885616425</v>
+        <v>0.9739054084142378</v>
       </c>
       <c r="K2">
-        <v>1.05246706129028</v>
+        <v>1.046579355767017</v>
       </c>
       <c r="L2">
-        <v>1.024774233207598</v>
+        <v>0.9746511057930237</v>
       </c>
       <c r="M2">
-        <v>1.044969577906767</v>
+        <v>1.017984601133856</v>
       </c>
       <c r="N2">
-        <v>1.008781475499335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9937023416933257</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.022805773338148</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044005910362193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9962147802086583</v>
+        <v>0.9577778177285345</v>
       </c>
       <c r="D3">
-        <v>1.04441726034432</v>
+        <v>1.037094400929848</v>
       </c>
       <c r="E3">
-        <v>1.01685731298284</v>
+        <v>0.9690098639457901</v>
       </c>
       <c r="F3">
-        <v>1.037467824542075</v>
+        <v>1.010886381581741</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059608767482645</v>
+        <v>1.04927706404645</v>
       </c>
       <c r="J3">
-        <v>1.016809168726751</v>
+        <v>0.9794896419110901</v>
       </c>
       <c r="K3">
-        <v>1.054511688068197</v>
+        <v>1.047273671570202</v>
       </c>
       <c r="L3">
-        <v>1.027278950827224</v>
+        <v>0.9800552512484076</v>
       </c>
       <c r="M3">
-        <v>1.047642732840083</v>
+        <v>1.021381838579562</v>
       </c>
       <c r="N3">
-        <v>1.00956811849766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9957789436971866</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.025494521857287</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044494194377462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988599042884556</v>
+        <v>0.9625728938089222</v>
       </c>
       <c r="D4">
-        <v>1.046225222446042</v>
+        <v>1.038050476311695</v>
       </c>
       <c r="E4">
-        <v>1.018992053908753</v>
+        <v>0.973003482017606</v>
       </c>
       <c r="F4">
-        <v>1.039689446119733</v>
+        <v>1.013575419726958</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06025953404516</v>
+        <v>1.049509434149789</v>
       </c>
       <c r="J4">
-        <v>1.018292818860944</v>
+        <v>0.9829849864110518</v>
       </c>
       <c r="K4">
-        <v>1.055796011345559</v>
+        <v>1.047710371136536</v>
       </c>
       <c r="L4">
-        <v>1.028866540422444</v>
+        <v>0.9834390343678743</v>
       </c>
       <c r="M4">
-        <v>1.049331338016444</v>
+        <v>1.023512716549749</v>
       </c>
       <c r="N4">
-        <v>1.010066619735083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.9970758153516798</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.027181002911387</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044803861144127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9999600489822195</v>
+        <v>0.9645537530314537</v>
       </c>
       <c r="D5">
-        <v>1.046975387137247</v>
+        <v>1.038454341864686</v>
       </c>
       <c r="E5">
-        <v>1.019880720535687</v>
+        <v>0.9746548959839243</v>
       </c>
       <c r="F5">
-        <v>1.040612778390182</v>
+        <v>1.014688545398692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060525879321904</v>
+        <v>1.049604633349511</v>
       </c>
       <c r="J5">
-        <v>1.018909407159612</v>
+        <v>0.9844283022866798</v>
       </c>
       <c r="K5">
-        <v>1.056326850539205</v>
+        <v>1.047896257800343</v>
       </c>
       <c r="L5">
-        <v>1.029526243563879</v>
+        <v>0.9848365976406896</v>
       </c>
       <c r="M5">
-        <v>1.050031610585494</v>
+        <v>1.024392628849996</v>
       </c>
       <c r="N5">
-        <v>1.010273742149682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.9976107692964943</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.027877407334964</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04494241866809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000144083916374</v>
+        <v>0.9648850156667886</v>
       </c>
       <c r="D6">
-        <v>1.047100768482599</v>
+        <v>1.038528404760725</v>
       </c>
       <c r="E6">
-        <v>1.020029424318015</v>
+        <v>0.9749313017440616</v>
       </c>
       <c r="F6">
-        <v>1.040767194066692</v>
+        <v>1.014873793921971</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060570178391887</v>
+        <v>1.04962235105161</v>
       </c>
       <c r="J6">
-        <v>1.019012522347831</v>
+        <v>0.9846697922513247</v>
       </c>
       <c r="K6">
-        <v>1.056415452541206</v>
+        <v>1.047933676995188</v>
       </c>
       <c r="L6">
-        <v>1.029636563927411</v>
+        <v>0.9850705146030063</v>
       </c>
       <c r="M6">
-        <v>1.050148631785534</v>
+        <v>1.024538808794725</v>
       </c>
       <c r="N6">
-        <v>1.010308377322919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.9977004723283908</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.027993101023991</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04497756361303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988746505679467</v>
+        <v>0.962601385816199</v>
       </c>
       <c r="D7">
-        <v>1.046235284814093</v>
+        <v>1.038073080755853</v>
       </c>
       <c r="E7">
-        <v>1.019003962464403</v>
+        <v>0.9730276441738589</v>
       </c>
       <c r="F7">
-        <v>1.039701825165669</v>
+        <v>1.013588422774603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060263121266156</v>
+        <v>1.049515931455497</v>
       </c>
       <c r="J7">
-        <v>1.018301085522374</v>
+        <v>0.983006208181568</v>
       </c>
       <c r="K7">
-        <v>1.055803139941566</v>
+        <v>1.047729872100065</v>
       </c>
       <c r="L7">
-        <v>1.028875385466311</v>
+        <v>0.9834597691916769</v>
       </c>
       <c r="M7">
-        <v>1.049340732591806</v>
+        <v>1.023522620475325</v>
       </c>
       <c r="N7">
-        <v>1.010069396843386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.9970843468987204</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.027188841352828</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044837625507767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9934668307872522</v>
+        <v>0.9527467375815216</v>
       </c>
       <c r="D8">
-        <v>1.042533088183937</v>
+        <v>1.036125321832502</v>
       </c>
       <c r="E8">
-        <v>1.014642488724941</v>
+        <v>0.9648259150698979</v>
       </c>
       <c r="F8">
-        <v>1.035157732250998</v>
+        <v>1.008072686221542</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058917978013984</v>
+        <v>1.04903115627207</v>
       </c>
       <c r="J8">
-        <v>1.015266258805347</v>
+        <v>0.9758204677805392</v>
       </c>
       <c r="K8">
-        <v>1.053166168835637</v>
+        <v>1.046837215204688</v>
       </c>
       <c r="L8">
-        <v>1.025627704828479</v>
+        <v>0.9765044061474457</v>
       </c>
       <c r="M8">
-        <v>1.045881632156026</v>
+        <v>1.019144407000894</v>
       </c>
       <c r="N8">
-        <v>1.009049543473007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9944159568505136</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.023723704577201</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044210973573485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9835253433287532</v>
+        <v>0.9340543673769421</v>
       </c>
       <c r="D9">
-        <v>1.035675424482385</v>
+        <v>1.032552775553295</v>
       </c>
       <c r="E9">
-        <v>1.006655088507489</v>
+        <v>0.9493312177710979</v>
       </c>
       <c r="F9">
-        <v>1.026787931436564</v>
+        <v>0.9977489019471595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056307882589472</v>
+        <v>1.048031804401574</v>
       </c>
       <c r="J9">
-        <v>1.009673584814499</v>
+        <v>0.9621718637052445</v>
       </c>
       <c r="K9">
-        <v>1.048215045230579</v>
+        <v>1.045138896731956</v>
       </c>
       <c r="L9">
-        <v>1.019641106503104</v>
+        <v>0.96330358217488</v>
       </c>
       <c r="M9">
-        <v>1.039460845636791</v>
+        <v>1.010878607535751</v>
       </c>
       <c r="N9">
-        <v>1.00716869882208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9893249637620196</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.017181689623365</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043007031094541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9765916772460279</v>
+        <v>0.9207304404709202</v>
       </c>
       <c r="D10">
-        <v>1.030864019748725</v>
+        <v>1.030121000899044</v>
       </c>
       <c r="E10">
-        <v>1.00110858617087</v>
+        <v>0.9383614956112004</v>
       </c>
       <c r="F10">
-        <v>1.020944727996246</v>
+        <v>0.9906856882682826</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054399223889513</v>
+        <v>1.047308753887177</v>
       </c>
       <c r="J10">
-        <v>1.005765832142822</v>
+        <v>0.9524848542283578</v>
       </c>
       <c r="K10">
-        <v>1.044697512401737</v>
+        <v>1.043966905427857</v>
       </c>
       <c r="L10">
-        <v>1.015457853558338</v>
+        <v>0.9539405869750037</v>
       </c>
       <c r="M10">
-        <v>1.034945843254276</v>
+        <v>1.005225176890407</v>
       </c>
       <c r="N10">
-        <v>1.005853702181058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9857206557785491</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.012760307305621</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042195048581158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9735097975825433</v>
+        <v>0.9163836976133176</v>
       </c>
       <c r="D11">
-        <v>1.02872016716297</v>
+        <v>1.029283744936847</v>
       </c>
       <c r="E11">
-        <v>0.9986498892323574</v>
+        <v>0.9349787993116827</v>
       </c>
       <c r="F11">
-        <v>1.018347402185579</v>
+        <v>0.9898716936250109</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053530979291332</v>
+        <v>1.047300517651547</v>
       </c>
       <c r="J11">
-        <v>1.00402768785888</v>
+        <v>0.9497020381093346</v>
       </c>
       <c r="K11">
-        <v>1.043120053347259</v>
+        <v>1.04367376481546</v>
       </c>
       <c r="L11">
-        <v>1.013597311657725</v>
+        <v>0.9512407258689003</v>
       </c>
       <c r="M11">
-        <v>1.032931414000724</v>
+        <v>1.004987176432808</v>
       </c>
       <c r="N11">
-        <v>1.005268647456178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9848599540553283</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.013021368384417</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042020332199183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9723524618767002</v>
+        <v>0.9153752270660729</v>
       </c>
       <c r="D12">
-        <v>1.027914427505937</v>
+        <v>1.029038187021578</v>
       </c>
       <c r="E12">
-        <v>0.9977276469195581</v>
+        <v>0.9343023320006356</v>
       </c>
       <c r="F12">
-        <v>1.017372118592983</v>
+        <v>0.9904075620847493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05320203317282</v>
+        <v>1.047414243401174</v>
       </c>
       <c r="J12">
-        <v>1.003374821978765</v>
+        <v>0.9492493036467974</v>
       </c>
       <c r="K12">
-        <v>1.042525684019451</v>
+        <v>1.0436294336845</v>
       </c>
       <c r="L12">
-        <v>1.012898511500623</v>
+        <v>0.9508065695662521</v>
       </c>
       <c r="M12">
-        <v>1.032173896340673</v>
+        <v>1.005720874790144</v>
       </c>
       <c r="N12">
-        <v>1.005048874880497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9848448613638318</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.013936742836001</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041988989206299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9726012946374477</v>
+        <v>0.9168883694201325</v>
       </c>
       <c r="D13">
-        <v>1.028087693080366</v>
+        <v>1.029247791049432</v>
       </c>
       <c r="E13">
-        <v>0.9979258838510557</v>
+        <v>0.9356731336380678</v>
       </c>
       <c r="F13">
-        <v>1.017581803501432</v>
+        <v>0.9920332849356353</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053272887469561</v>
+        <v>1.047636885365645</v>
       </c>
       <c r="J13">
-        <v>1.003515197017478</v>
+        <v>0.9505726323325656</v>
       </c>
       <c r="K13">
-        <v>1.042653564226912</v>
+        <v>1.043793084090543</v>
       </c>
       <c r="L13">
-        <v>1.01304876094511</v>
+        <v>0.9520973965072467</v>
       </c>
       <c r="M13">
-        <v>1.032336811653771</v>
+        <v>1.007270170004888</v>
       </c>
       <c r="N13">
-        <v>1.00509612980769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9854825770386911</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.015444582963656</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042102224104883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9734143924760541</v>
+        <v>0.9190608834921001</v>
       </c>
       <c r="D14">
-        <v>1.028653758564193</v>
+        <v>1.029601613999717</v>
       </c>
       <c r="E14">
-        <v>0.9985738418701356</v>
+        <v>0.9375351663142547</v>
       </c>
       <c r="F14">
-        <v>1.01826700213538</v>
+        <v>0.9936380375115365</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053503920891058</v>
+        <v>1.047838549476242</v>
       </c>
       <c r="J14">
-        <v>1.003973871421547</v>
+        <v>0.9522777882284029</v>
       </c>
       <c r="K14">
-        <v>1.043071096176659</v>
+        <v>1.044002341584826</v>
       </c>
       <c r="L14">
-        <v>1.013539707896436</v>
+        <v>0.9537584003064364</v>
       </c>
       <c r="M14">
-        <v>1.032868988504392</v>
+        <v>1.008698064603585</v>
       </c>
       <c r="N14">
-        <v>1.005250531747105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.986214770804959</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.016749811101662</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042251584586734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739136810808819</v>
+        <v>0.920145186887961</v>
       </c>
       <c r="D15">
-        <v>1.029001272078216</v>
+        <v>1.029793424910359</v>
       </c>
       <c r="E15">
-        <v>0.9989718686590422</v>
+        <v>0.9384407486008587</v>
       </c>
       <c r="F15">
-        <v>1.018687768228753</v>
+        <v>0.9942975837557049</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053645409573258</v>
+        <v>1.047915687817372</v>
       </c>
       <c r="J15">
-        <v>1.004255506301837</v>
+        <v>0.9530895117724746</v>
       </c>
       <c r="K15">
-        <v>1.043327225986636</v>
+        <v>1.044105601132736</v>
       </c>
       <c r="L15">
-        <v>1.013841164514507</v>
+        <v>0.9545460760573474</v>
       </c>
       <c r="M15">
-        <v>1.033195641343107</v>
+        <v>1.009255315851947</v>
       </c>
       <c r="N15">
-        <v>1.005345335002491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9865378996859043</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.017228401441463</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042330407975685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9767944819481333</v>
+        <v>0.925531598049614</v>
       </c>
       <c r="D16">
-        <v>1.031004998123405</v>
+        <v>1.030779683446901</v>
       </c>
       <c r="E16">
-        <v>1.00127052629654</v>
+        <v>0.9428330562604533</v>
       </c>
       <c r="F16">
-        <v>1.021115652599108</v>
+        <v>0.9970201975390001</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054455952346027</v>
+        <v>1.048189308406013</v>
       </c>
       <c r="J16">
-        <v>1.005880189613724</v>
+        <v>0.956959038012408</v>
       </c>
       <c r="K16">
-        <v>1.044801035847238</v>
+        <v>1.044579470257134</v>
       </c>
       <c r="L16">
-        <v>1.01558026841234</v>
+        <v>0.9582773504847116</v>
       </c>
       <c r="M16">
-        <v>1.035078253826986</v>
+        <v>1.011406625842237</v>
       </c>
       <c r="N16">
-        <v>1.005892191695714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9879440981445322</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.018889414340149</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042668588458028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9785797966514844</v>
+        <v>0.9285204417046136</v>
       </c>
       <c r="D17">
-        <v>1.032245462462689</v>
+        <v>1.031354967411835</v>
       </c>
       <c r="E17">
-        <v>1.002696867816846</v>
+        <v>0.9452266347435592</v>
       </c>
       <c r="F17">
-        <v>1.022620320174645</v>
+        <v>0.9982650590281547</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054953085442341</v>
+        <v>1.048292733358265</v>
       </c>
       <c r="J17">
-        <v>1.006886757936599</v>
+        <v>0.9590324749155711</v>
       </c>
       <c r="K17">
-        <v>1.045710785566339</v>
+        <v>1.044834692903508</v>
       </c>
       <c r="L17">
-        <v>1.016657775829976</v>
+        <v>0.9602684000524822</v>
       </c>
       <c r="M17">
-        <v>1.036243026512161</v>
+        <v>1.012303576581002</v>
       </c>
       <c r="N17">
-        <v>1.006230957376675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9886383827259756</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.0194671643243</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042851607412065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9796135095576136</v>
+        <v>0.9297194282989276</v>
       </c>
       <c r="D18">
-        <v>1.032963191989289</v>
+        <v>1.031612766756629</v>
       </c>
       <c r="E18">
-        <v>1.003523355293488</v>
+        <v>0.9461092284923336</v>
       </c>
       <c r="F18">
-        <v>1.023491515665959</v>
+        <v>0.9982480289928646</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055239034963211</v>
+        <v>1.048246068639889</v>
       </c>
       <c r="J18">
-        <v>1.0074694507025</v>
+        <v>0.9597282796659611</v>
       </c>
       <c r="K18">
-        <v>1.046236202606472</v>
+        <v>1.044907256288913</v>
       </c>
       <c r="L18">
-        <v>1.017281546926819</v>
+        <v>0.9609278815551271</v>
       </c>
       <c r="M18">
-        <v>1.036916711501146</v>
+        <v>1.012097072419716</v>
       </c>
       <c r="N18">
-        <v>1.006427050906638</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9887756596977459</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.019061628052163</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042891377325288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.979964703237459</v>
+        <v>0.9292779083172142</v>
       </c>
       <c r="D19">
-        <v>1.033206943049485</v>
+        <v>1.031600641554028</v>
       </c>
       <c r="E19">
-        <v>1.003804249688252</v>
+        <v>0.9456116352466285</v>
       </c>
       <c r="F19">
-        <v>1.023787489077226</v>
+        <v>0.9970251139554019</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055335859341042</v>
+        <v>1.048066453007783</v>
       </c>
       <c r="J19">
-        <v>1.007667393342243</v>
+        <v>0.9591551435752375</v>
       </c>
       <c r="K19">
-        <v>1.046414477874001</v>
+        <v>1.044833581887926</v>
       </c>
       <c r="L19">
-        <v>1.017493445581253</v>
+        <v>0.9603702077292859</v>
       </c>
       <c r="M19">
-        <v>1.037145462736416</v>
+        <v>1.010830575812508</v>
       </c>
       <c r="N19">
-        <v>1.006493661935532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9884173666690704</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.017727241297761</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042845627163121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9783890430489161</v>
+        <v>0.9242398923691294</v>
       </c>
       <c r="D20">
-        <v>1.032112975901935</v>
+        <v>1.030789916628012</v>
       </c>
       <c r="E20">
-        <v>1.002544403861427</v>
+        <v>0.941248495600318</v>
       </c>
       <c r="F20">
-        <v>1.022459553919331</v>
+        <v>0.9925347163427813</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054900164705507</v>
+        <v>1.047512823152776</v>
       </c>
       <c r="J20">
-        <v>1.006779222277238</v>
+        <v>0.9550395349114489</v>
       </c>
       <c r="K20">
-        <v>1.045613720305895</v>
+        <v>1.044312138795913</v>
       </c>
       <c r="L20">
-        <v>1.016542660058362</v>
+        <v>0.9564095654107583</v>
       </c>
       <c r="M20">
-        <v>1.036118650170538</v>
+        <v>1.006710116326117</v>
       </c>
       <c r="N20">
-        <v>1.006194767204486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9866745662364659</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.013924633469234</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042480831662435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9731753082472087</v>
+        <v>0.9136872635204371</v>
       </c>
       <c r="D21">
-        <v>1.028487329108082</v>
+        <v>1.028919050000066</v>
       </c>
       <c r="E21">
-        <v>0.9983832854588793</v>
+        <v>0.9325502555917392</v>
       </c>
       <c r="F21">
-        <v>1.018065522220857</v>
+        <v>0.9867014440601215</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053436066491759</v>
+        <v>1.046881450973342</v>
       </c>
       <c r="J21">
-        <v>1.003839005833518</v>
+        <v>0.9472961378867364</v>
       </c>
       <c r="K21">
-        <v>1.042948378376942</v>
+        <v>1.043372501126351</v>
       </c>
       <c r="L21">
-        <v>1.013395351863166</v>
+        <v>0.9489330078881377</v>
       </c>
       <c r="M21">
-        <v>1.03271253442693</v>
+        <v>1.001939218945656</v>
       </c>
       <c r="N21">
-        <v>1.005205132937178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9837603134080195</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.010106485744462</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041819666053101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9698240477202944</v>
+        <v>0.9068561709262176</v>
       </c>
       <c r="D22">
-        <v>1.026153076736811</v>
+        <v>1.027721848643226</v>
       </c>
       <c r="E22">
-        <v>0.9957148919803182</v>
+        <v>0.9269458191177391</v>
       </c>
       <c r="F22">
-        <v>1.015241716599204</v>
+        <v>0.9830579341850284</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.052478172781187</v>
+        <v>1.046478009707156</v>
       </c>
       <c r="J22">
-        <v>1.001948302324698</v>
+        <v>0.942308360361154</v>
       </c>
       <c r="K22">
-        <v>1.0412236500307</v>
+        <v>1.04276343294865</v>
       </c>
       <c r="L22">
-        <v>1.011371718350186</v>
+        <v>0.9441180682013213</v>
       </c>
       <c r="M22">
-        <v>1.030517160669185</v>
+        <v>0.9989726574392517</v>
       </c>
       <c r="N22">
-        <v>1.004568636671951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9818910853098001</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.007758542151794</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041375649855705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9716077742804194</v>
+        <v>0.9105050481492351</v>
       </c>
       <c r="D23">
-        <v>1.027395805280876</v>
+        <v>1.028344537284206</v>
       </c>
       <c r="E23">
-        <v>0.9971345415014033</v>
+        <v>0.9299373286249806</v>
       </c>
       <c r="F23">
-        <v>1.0167446111851</v>
+        <v>0.9850049882081958</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052989568933988</v>
+        <v>1.046690673401707</v>
       </c>
       <c r="J23">
-        <v>1.002954700843796</v>
+        <v>0.9449718506378069</v>
       </c>
       <c r="K23">
-        <v>1.042142691687108</v>
+        <v>1.043074335976321</v>
       </c>
       <c r="L23">
-        <v>1.012448845008401</v>
+        <v>0.9466887428680916</v>
       </c>
       <c r="M23">
-        <v>1.031686191374672</v>
+        <v>1.000559615809514</v>
       </c>
       <c r="N23">
-        <v>1.004907445442322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9828885275743849</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.009014572711926</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041585926266557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784752599267996</v>
+        <v>0.9242441049303169</v>
       </c>
       <c r="D24">
-        <v>1.032172858814174</v>
+        <v>1.03077663816794</v>
       </c>
       <c r="E24">
-        <v>1.002613312645543</v>
+        <v>0.9412347463257782</v>
       </c>
       <c r="F24">
-        <v>1.022532217176839</v>
+        <v>0.9923985726103358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054924089719028</v>
+        <v>1.047485545988298</v>
       </c>
       <c r="J24">
-        <v>1.006827826653461</v>
+        <v>0.9550060307463939</v>
       </c>
       <c r="K24">
-        <v>1.045657596045331</v>
+        <v>1.044284010550551</v>
       </c>
       <c r="L24">
-        <v>1.016594690485567</v>
+        <v>0.956378910023816</v>
       </c>
       <c r="M24">
-        <v>1.036174868097841</v>
+        <v>1.006560505924958</v>
       </c>
       <c r="N24">
-        <v>1.006211124621879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.986645930749261</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.013764077407034</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042433779699804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9861471690661406</v>
+        <v>0.9390644891547594</v>
       </c>
       <c r="D25">
-        <v>1.037489368514127</v>
+        <v>1.033515890901986</v>
       </c>
       <c r="E25">
-        <v>1.00875764888013</v>
+        <v>0.9534766769293902</v>
       </c>
       <c r="F25">
-        <v>1.028996634247362</v>
+        <v>1.000492257958785</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057011800621825</v>
+        <v>1.048313971184541</v>
       </c>
       <c r="J25">
-        <v>1.011149902190883</v>
+        <v>0.965832237362092</v>
       </c>
       <c r="K25">
-        <v>1.049532307194157</v>
+        <v>1.045615277517454</v>
       </c>
       <c r="L25">
-        <v>1.021221517981551</v>
+        <v>0.9668428612580348</v>
       </c>
       <c r="M25">
-        <v>1.04116089356871</v>
+        <v>1.013082937059741</v>
       </c>
       <c r="N25">
-        <v>1.007665341786024</v>
+        <v>0.9906936110635022</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.01892632528065</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043372205526524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9501231902347155</v>
+        <v>0.9543600885961746</v>
       </c>
       <c r="D2">
-        <v>1.035594600035939</v>
+        <v>1.032845106710283</v>
       </c>
       <c r="E2">
-        <v>0.9626456114174764</v>
+        <v>0.9662848005062205</v>
       </c>
       <c r="F2">
-        <v>1.006616683943592</v>
+        <v>1.008006270893255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048890919004574</v>
+        <v>1.047895985371686</v>
       </c>
       <c r="J2">
-        <v>0.9739054084142378</v>
+        <v>0.9779971795675155</v>
       </c>
       <c r="K2">
-        <v>1.046579355767017</v>
+        <v>1.043865063108847</v>
       </c>
       <c r="L2">
-        <v>0.9746511057930237</v>
+        <v>0.9782347203495112</v>
       </c>
       <c r="M2">
-        <v>1.017984601133856</v>
+        <v>1.019355181239311</v>
       </c>
       <c r="N2">
-        <v>0.9937023416933257</v>
+        <v>1.000106676599221</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.022805773338148</v>
+        <v>1.023890522238952</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044005910362193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042095411148785</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02373407847876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9577778177285345</v>
+        <v>0.9616148623646229</v>
       </c>
       <c r="D3">
-        <v>1.037094400929848</v>
+        <v>1.034229228300775</v>
       </c>
       <c r="E3">
-        <v>0.9690098639457901</v>
+        <v>0.9723099390791653</v>
       </c>
       <c r="F3">
-        <v>1.010886381581741</v>
+        <v>1.012119332162158</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04927706404645</v>
+        <v>1.048226187125585</v>
       </c>
       <c r="J3">
-        <v>0.9794896419110901</v>
+        <v>0.9832096026906576</v>
       </c>
       <c r="K3">
-        <v>1.047273671570202</v>
+        <v>1.044442099688785</v>
       </c>
       <c r="L3">
-        <v>0.9800552512484076</v>
+        <v>0.9833098237781601</v>
       </c>
       <c r="M3">
-        <v>1.021381838579562</v>
+        <v>1.022599457212319</v>
       </c>
       <c r="N3">
-        <v>0.9957789436971866</v>
+        <v>1.001663491047371</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.025494521857287</v>
+        <v>1.026458205310049</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044494194377462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042500497435905</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023794929805885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9625728938089222</v>
+        <v>0.9661666839594923</v>
       </c>
       <c r="D4">
-        <v>1.038050476311695</v>
+        <v>1.035112483681053</v>
       </c>
       <c r="E4">
-        <v>0.973003482017606</v>
+        <v>0.9760967679461521</v>
       </c>
       <c r="F4">
-        <v>1.013575419726958</v>
+        <v>1.014712804919614</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049509434149789</v>
+        <v>1.048423418132296</v>
       </c>
       <c r="J4">
-        <v>0.9829849864110518</v>
+        <v>0.9864773148631174</v>
       </c>
       <c r="K4">
-        <v>1.047710371136536</v>
+        <v>1.044804825731568</v>
       </c>
       <c r="L4">
-        <v>0.9834390343678743</v>
+        <v>0.9864925097703763</v>
       </c>
       <c r="M4">
-        <v>1.023512716549749</v>
+        <v>1.024636844061301</v>
       </c>
       <c r="N4">
-        <v>0.9970758153516798</v>
+        <v>1.002637106254487</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.027181002911387</v>
+        <v>1.028070690737639</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044803861144127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042757947113935</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023829929831491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9645537530314537</v>
+        <v>0.9680485676027603</v>
       </c>
       <c r="D5">
-        <v>1.038454341864686</v>
+        <v>1.035485977961866</v>
       </c>
       <c r="E5">
-        <v>0.9746548959839243</v>
+        <v>0.9776639283177708</v>
       </c>
       <c r="F5">
-        <v>1.014688545398692</v>
+        <v>1.015787121105032</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049604633349511</v>
+        <v>1.048504110760745</v>
       </c>
       <c r="J5">
-        <v>0.9844283022866798</v>
+        <v>0.9878276947045455</v>
       </c>
       <c r="K5">
-        <v>1.047896257800343</v>
+        <v>1.044959832220688</v>
       </c>
       <c r="L5">
-        <v>0.9848365976406896</v>
+        <v>0.9878080379849818</v>
       </c>
       <c r="M5">
-        <v>1.024392628849996</v>
+        <v>1.025478752626382</v>
       </c>
       <c r="N5">
-        <v>0.9976107692964943</v>
+        <v>1.003038988133068</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.027877407334964</v>
+        <v>1.028737016351944</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04494241866809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042875392017967</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023844762268925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9648850156667886</v>
+        <v>0.9683632897651314</v>
       </c>
       <c r="D6">
-        <v>1.038528404760725</v>
+        <v>1.03555469136021</v>
       </c>
       <c r="E6">
-        <v>0.9749313017440616</v>
+        <v>0.9779262338638341</v>
       </c>
       <c r="F6">
-        <v>1.014873793921971</v>
+        <v>1.015966045318358</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04962235105161</v>
+        <v>1.048519437412774</v>
       </c>
       <c r="J6">
-        <v>0.9846697922513247</v>
+        <v>0.9880536322687978</v>
       </c>
       <c r="K6">
-        <v>1.047933676995188</v>
+        <v>1.044991817492621</v>
       </c>
       <c r="L6">
-        <v>0.9850705146030063</v>
+        <v>0.9880282189388278</v>
       </c>
       <c r="M6">
-        <v>1.024538808794725</v>
+        <v>1.025618738558203</v>
       </c>
       <c r="N6">
-        <v>0.9977004723283908</v>
+        <v>1.003106366184004</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.027993101023991</v>
+        <v>1.028847807669845</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04497756361303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04290757500236</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023848591055597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.962601385816199</v>
+        <v>0.9662180906471474</v>
       </c>
       <c r="D7">
-        <v>1.038073080755853</v>
+        <v>1.035134788287112</v>
       </c>
       <c r="E7">
-        <v>0.9730276441738589</v>
+        <v>0.976142952166975</v>
       </c>
       <c r="F7">
-        <v>1.013588422774603</v>
+        <v>1.014737543239506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049515931455497</v>
+        <v>1.048431249645383</v>
       </c>
       <c r="J7">
-        <v>0.983006208181568</v>
+        <v>0.9865208537198451</v>
       </c>
       <c r="K7">
-        <v>1.047729872100065</v>
+        <v>1.044824017639912</v>
       </c>
       <c r="L7">
-        <v>0.9834597691916769</v>
+        <v>0.9865350004283344</v>
       </c>
       <c r="M7">
-        <v>1.023522620475325</v>
+        <v>1.024658351570946</v>
       </c>
       <c r="N7">
-        <v>0.9970843468987204</v>
+        <v>1.002679208236484</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.027188841352828</v>
+        <v>1.028087712789583</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044837625507767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042793517229446</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023834026147612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9527467375815216</v>
+        <v>0.9569219171386137</v>
       </c>
       <c r="D8">
-        <v>1.036125321832502</v>
+        <v>1.033338180557473</v>
       </c>
       <c r="E8">
-        <v>0.9648259150698979</v>
+        <v>0.9684215249805115</v>
       </c>
       <c r="F8">
-        <v>1.008072686221542</v>
+        <v>1.009446808501133</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04903115627207</v>
+        <v>1.048021946488598</v>
       </c>
       <c r="J8">
-        <v>0.9758204677805392</v>
+        <v>0.9798580519848051</v>
       </c>
       <c r="K8">
-        <v>1.046837215204688</v>
+        <v>1.044084734628359</v>
       </c>
       <c r="L8">
-        <v>0.9765044061474457</v>
+        <v>0.9800469464222321</v>
       </c>
       <c r="M8">
-        <v>1.019144407000894</v>
+        <v>1.020500319371139</v>
       </c>
       <c r="N8">
-        <v>0.9944159568505136</v>
+        <v>1.000751712115778</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.023723704577201</v>
+        <v>1.024796843219803</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044210973573485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042275770330748</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023760529527731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9340543673769421</v>
+        <v>0.9392722036516249</v>
       </c>
       <c r="D9">
-        <v>1.032552775553295</v>
+        <v>1.030046887281401</v>
       </c>
       <c r="E9">
-        <v>0.9493312177710979</v>
+        <v>0.9538097117040081</v>
       </c>
       <c r="F9">
-        <v>0.9977489019471595</v>
+        <v>0.9995318320661735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048031804401574</v>
+        <v>1.047159643313431</v>
       </c>
       <c r="J9">
-        <v>0.9621718637052445</v>
+        <v>0.9671680338631212</v>
       </c>
       <c r="K9">
-        <v>1.045138896731956</v>
+        <v>1.042670584075882</v>
       </c>
       <c r="L9">
-        <v>0.96330358217488</v>
+        <v>0.9676994563018678</v>
       </c>
       <c r="M9">
-        <v>1.010878607535751</v>
+        <v>1.012632509537907</v>
       </c>
       <c r="N9">
-        <v>0.9893249637620196</v>
+        <v>0.9969618079001313</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.017181689623365</v>
+        <v>1.018569830897458</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043007031094541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041272446822106</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023590826356816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9207304404709202</v>
+        <v>0.9268680586211299</v>
       </c>
       <c r="D10">
-        <v>1.030121000899044</v>
+        <v>1.027815066021135</v>
       </c>
       <c r="E10">
-        <v>0.9383614956112004</v>
+        <v>0.9436287140128793</v>
       </c>
       <c r="F10">
-        <v>0.9906856882682826</v>
+        <v>0.9928422714775985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047308753887177</v>
+        <v>1.046541315308351</v>
       </c>
       <c r="J10">
-        <v>0.9524848542283578</v>
+        <v>0.9583169374733351</v>
       </c>
       <c r="K10">
-        <v>1.043966905427857</v>
+        <v>1.041699637750521</v>
       </c>
       <c r="L10">
-        <v>0.9539405869750037</v>
+        <v>0.9590962482269877</v>
       </c>
       <c r="M10">
-        <v>1.005225176890407</v>
+        <v>1.007341974819452</v>
       </c>
       <c r="N10">
-        <v>0.9857206557785491</v>
+        <v>0.9944536111779536</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.012760307305621</v>
+        <v>1.014435565628258</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042195048581158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04060429646522</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023460633165714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9163836976133176</v>
+        <v>0.9230017833432107</v>
       </c>
       <c r="D11">
-        <v>1.029283744936847</v>
+        <v>1.027036351880194</v>
       </c>
       <c r="E11">
-        <v>0.9349787993116827</v>
+        <v>0.9406773074154043</v>
       </c>
       <c r="F11">
-        <v>0.9898716936250109</v>
+        <v>0.9922466237982897</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047300517651547</v>
+        <v>1.046577394718816</v>
       </c>
       <c r="J11">
-        <v>0.9497020381093346</v>
+        <v>0.9559698256353348</v>
       </c>
       <c r="K11">
-        <v>1.04367376481546</v>
+        <v>1.041465799481789</v>
       </c>
       <c r="L11">
-        <v>0.9512407258689003</v>
+        <v>0.9568119342477045</v>
       </c>
       <c r="M11">
-        <v>1.004987176432808</v>
+        <v>1.007316253797058</v>
       </c>
       <c r="N11">
-        <v>0.9848599540553283</v>
+        <v>0.9941563761064296</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.013021368384417</v>
+        <v>1.014863644317325</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042020332199183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040474755623818</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02344028414183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9153752270660729</v>
+        <v>0.9221362198932417</v>
       </c>
       <c r="D12">
-        <v>1.029038187021578</v>
+        <v>1.026798686556448</v>
       </c>
       <c r="E12">
-        <v>0.9343023320006356</v>
+        <v>0.9401308162272249</v>
       </c>
       <c r="F12">
-        <v>0.9904075620847493</v>
+        <v>0.9928511071294034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047414243401174</v>
+        <v>1.04670191000491</v>
       </c>
       <c r="J12">
-        <v>0.9492493036467974</v>
+        <v>0.9556450135821489</v>
       </c>
       <c r="K12">
-        <v>1.0436294336845</v>
+        <v>1.041429866411982</v>
       </c>
       <c r="L12">
-        <v>0.9508065695662521</v>
+        <v>0.956502508822097</v>
       </c>
       <c r="M12">
-        <v>1.005720874790144</v>
+        <v>1.00811656232289</v>
       </c>
       <c r="N12">
-        <v>0.9848448613638318</v>
+        <v>0.9942974257369764</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.013936742836001</v>
+        <v>1.015831031701355</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041988989206299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04044935065462</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023441004552101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9168883694201325</v>
+        <v>0.9234944227894213</v>
       </c>
       <c r="D13">
-        <v>1.029247791049432</v>
+        <v>1.02697617972224</v>
       </c>
       <c r="E13">
-        <v>0.9356731336380678</v>
+        <v>0.9413634389975241</v>
       </c>
       <c r="F13">
-        <v>0.9920332849356353</v>
+        <v>0.9944114554866011</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047636885365645</v>
+        <v>1.046908849536953</v>
       </c>
       <c r="J13">
-        <v>0.9505726323325656</v>
+        <v>0.9568247218158854</v>
       </c>
       <c r="K13">
-        <v>1.043793084090543</v>
+        <v>1.041561823778959</v>
       </c>
       <c r="L13">
-        <v>0.9520973965072467</v>
+        <v>0.9576592194009086</v>
       </c>
       <c r="M13">
-        <v>1.007270170004888</v>
+        <v>1.0096021154027</v>
       </c>
       <c r="N13">
-        <v>0.9854825770386911</v>
+        <v>0.9947347669260389</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.015444582963656</v>
+        <v>1.017287988305185</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042102224104883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040539931061001</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023463092520886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9190608834921001</v>
+        <v>0.925429049105187</v>
       </c>
       <c r="D14">
-        <v>1.029601613999717</v>
+        <v>1.027290347972391</v>
       </c>
       <c r="E14">
-        <v>0.9375351663142547</v>
+        <v>0.9430128784686588</v>
       </c>
       <c r="F14">
-        <v>0.9936380375115365</v>
+        <v>0.9959133429173167</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047838549476242</v>
+        <v>1.047088767421389</v>
       </c>
       <c r="J14">
-        <v>0.9522777882284029</v>
+        <v>0.9583111009617101</v>
       </c>
       <c r="K14">
-        <v>1.044002341584826</v>
+        <v>1.041731647399017</v>
       </c>
       <c r="L14">
-        <v>0.9537584003064364</v>
+        <v>0.9591144285932669</v>
       </c>
       <c r="M14">
-        <v>1.008698064603585</v>
+        <v>1.010929811959253</v>
       </c>
       <c r="N14">
-        <v>0.986214770804959</v>
+        <v>0.9951709569552661</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.016749811101662</v>
+        <v>1.018513765534593</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042251584586734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040661549202799</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023488288114646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.920145186887961</v>
+        <v>0.9263945428412097</v>
       </c>
       <c r="D15">
-        <v>1.029793424910359</v>
+        <v>1.027463734726705</v>
       </c>
       <c r="E15">
-        <v>0.9384407486008587</v>
+        <v>0.9438124893776157</v>
       </c>
       <c r="F15">
-        <v>0.9942975837557049</v>
+        <v>0.9965212668881117</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047915687817372</v>
+        <v>1.047155435450464</v>
       </c>
       <c r="J15">
-        <v>0.9530895117724746</v>
+        <v>0.9590138202987254</v>
       </c>
       <c r="K15">
-        <v>1.044105601132736</v>
+        <v>1.041816509116197</v>
       </c>
       <c r="L15">
-        <v>0.9545460760573474</v>
+        <v>0.9597996068721935</v>
       </c>
       <c r="M15">
-        <v>1.009255315851947</v>
+        <v>1.011436792251194</v>
       </c>
       <c r="N15">
-        <v>0.9865378996859043</v>
+        <v>0.9953487567362798</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.017228401441463</v>
+        <v>1.018952576224305</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042330407975685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.0407279418151</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023500651781794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.925531598049614</v>
+        <v>0.931229035386073</v>
       </c>
       <c r="D16">
-        <v>1.030779683446901</v>
+        <v>1.028366509761748</v>
       </c>
       <c r="E16">
-        <v>0.9428330562604533</v>
+        <v>0.947715443241065</v>
       </c>
       <c r="F16">
-        <v>0.9970201975390001</v>
+        <v>0.9990030336931501</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048189308406013</v>
+        <v>1.047378973663065</v>
       </c>
       <c r="J16">
-        <v>0.956959038012408</v>
+        <v>0.9623777936402744</v>
       </c>
       <c r="K16">
-        <v>1.044579470257134</v>
+        <v>1.042206582959074</v>
       </c>
       <c r="L16">
-        <v>0.9582773504847116</v>
+        <v>0.9630578706689746</v>
       </c>
       <c r="M16">
-        <v>1.011406625842237</v>
+        <v>1.013353581284341</v>
       </c>
       <c r="N16">
-        <v>0.9879440981445322</v>
+        <v>0.9960896656082021</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.018889414340149</v>
+        <v>1.020428277177131</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042668588458028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041007185764339</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023556617031584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9285204417046136</v>
+        <v>0.9339533727817448</v>
       </c>
       <c r="D17">
-        <v>1.031354967411835</v>
+        <v>1.028898768999587</v>
       </c>
       <c r="E17">
-        <v>0.9452266347435592</v>
+        <v>0.9498767415844878</v>
       </c>
       <c r="F17">
-        <v>0.9982650590281547</v>
+        <v>1.000133563240454</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048292733358265</v>
+        <v>1.04745620430199</v>
       </c>
       <c r="J17">
-        <v>0.9590324749155711</v>
+        <v>0.9642096108459253</v>
       </c>
       <c r="K17">
-        <v>1.044834692903508</v>
+        <v>1.042418385735712</v>
       </c>
       <c r="L17">
-        <v>0.9602684000524822</v>
+        <v>0.9648246511545787</v>
       </c>
       <c r="M17">
-        <v>1.012303576581002</v>
+        <v>1.014139251014572</v>
       </c>
       <c r="N17">
-        <v>0.9886383827259756</v>
+        <v>0.9964689018800186</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0194671643243</v>
+        <v>1.02091822034202</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042851607412065</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041159759358342</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023585889744469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9297194282989276</v>
+        <v>0.9350638428425321</v>
       </c>
       <c r="D18">
-        <v>1.031612766756629</v>
+        <v>1.029144325120483</v>
       </c>
       <c r="E18">
-        <v>0.9461092284923336</v>
+        <v>0.9506821559879884</v>
       </c>
       <c r="F18">
-        <v>0.9982480289928646</v>
+        <v>1.000076114420692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048246068639889</v>
+        <v>1.047399122112246</v>
       </c>
       <c r="J18">
-        <v>0.9597282796659611</v>
+        <v>0.9648262825012967</v>
       </c>
       <c r="K18">
-        <v>1.044907256288913</v>
+        <v>1.042478262781054</v>
       </c>
       <c r="L18">
-        <v>0.9609278815551271</v>
+        <v>0.9654101800104428</v>
       </c>
       <c r="M18">
-        <v>1.012097072419716</v>
+        <v>1.013893534159923</v>
       </c>
       <c r="N18">
-        <v>0.9887756596977459</v>
+        <v>0.9965105872877086</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.019061628052163</v>
+        <v>1.020481993905529</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042891377325288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041189412506093</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023591227961004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9292779083172142</v>
+        <v>0.9346699206658513</v>
       </c>
       <c r="D19">
-        <v>1.031600641554028</v>
+        <v>1.029146621240433</v>
       </c>
       <c r="E19">
-        <v>0.9456116352466285</v>
+        <v>0.950225828371472</v>
       </c>
       <c r="F19">
-        <v>0.9970251139554019</v>
+        <v>0.9988699787220955</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048066453007783</v>
+        <v>1.047223265181564</v>
       </c>
       <c r="J19">
-        <v>0.9591551435752375</v>
+        <v>0.9642997133251567</v>
       </c>
       <c r="K19">
-        <v>1.044833581887926</v>
+        <v>1.042418570987264</v>
       </c>
       <c r="L19">
-        <v>0.9603702077292859</v>
+        <v>0.9648933325447993</v>
       </c>
       <c r="M19">
-        <v>1.010830575812508</v>
+        <v>1.012643598021444</v>
       </c>
       <c r="N19">
-        <v>0.9884173666690704</v>
+        <v>0.9962254371153363</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.017727241297761</v>
+        <v>1.019161189734992</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042845627163121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041154179536175</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023577075877273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9242398923691294</v>
+        <v>0.9300545232634935</v>
       </c>
       <c r="D20">
-        <v>1.030789916628012</v>
+        <v>1.028426879623155</v>
       </c>
       <c r="E20">
-        <v>0.941248495600318</v>
+        <v>0.9462305369975421</v>
       </c>
       <c r="F20">
-        <v>0.9925347163427813</v>
+        <v>0.9945533016653211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047512823152776</v>
+        <v>1.046713231523548</v>
       </c>
       <c r="J20">
-        <v>0.9550395349114489</v>
+        <v>0.9605760245547839</v>
       </c>
       <c r="K20">
-        <v>1.044312138795913</v>
+        <v>1.041987638667756</v>
       </c>
       <c r="L20">
-        <v>0.9564095654107583</v>
+        <v>0.9612896815108373</v>
       </c>
       <c r="M20">
-        <v>1.006710116326117</v>
+        <v>1.008692605633159</v>
       </c>
       <c r="N20">
-        <v>0.9866745662364659</v>
+        <v>0.9950166139600775</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.013924633469234</v>
+        <v>1.015493617208769</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042480831662435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040853765981111</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023502783145017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9136872635204371</v>
+        <v>0.9206375925926175</v>
       </c>
       <c r="D21">
-        <v>1.028919050000066</v>
+        <v>1.02673109777004</v>
       </c>
       <c r="E21">
-        <v>0.9325502555917392</v>
+        <v>0.9385492951280504</v>
       </c>
       <c r="F21">
-        <v>0.9867014440601215</v>
+        <v>0.9892273766254912</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046881450973342</v>
+        <v>1.04619133074394</v>
       </c>
       <c r="J21">
-        <v>0.9472961378867364</v>
+        <v>0.953873721323531</v>
       </c>
       <c r="K21">
-        <v>1.043372501126351</v>
+        <v>1.041223141549946</v>
       </c>
       <c r="L21">
-        <v>0.9489330078881377</v>
+        <v>0.9547965291883863</v>
       </c>
       <c r="M21">
-        <v>1.001939218945656</v>
+        <v>1.004415754744506</v>
       </c>
       <c r="N21">
-        <v>0.9837603134080195</v>
+        <v>0.9934796758087799</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.010106485744462</v>
+        <v>1.012066582268865</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041819666053101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040316750089727</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023392120391948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9068561709262176</v>
+        <v>0.9145656989560492</v>
       </c>
       <c r="D22">
-        <v>1.027721848643226</v>
+        <v>1.025647249252033</v>
       </c>
       <c r="E22">
-        <v>0.9269458191177391</v>
+        <v>0.9336258037236181</v>
       </c>
       <c r="F22">
-        <v>0.9830579341850284</v>
+        <v>0.9859274365403696</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046478009707156</v>
+        <v>1.045860382839152</v>
       </c>
       <c r="J22">
-        <v>0.942308360361154</v>
+        <v>0.9495742955400499</v>
       </c>
       <c r="K22">
-        <v>1.04276343294865</v>
+        <v>1.040727194274614</v>
       </c>
       <c r="L22">
-        <v>0.9441180682013213</v>
+        <v>0.9506377108151072</v>
       </c>
       <c r="M22">
-        <v>0.9989726574392517</v>
+        <v>1.001782925176522</v>
       </c>
       <c r="N22">
-        <v>0.9818910853098001</v>
+        <v>0.9924971382875759</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.007758542151794</v>
+        <v>1.009982784173744</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041375649855705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039951391407095</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023317250710319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9105050481492351</v>
+        <v>0.9177609616498537</v>
       </c>
       <c r="D23">
-        <v>1.028344537284206</v>
+        <v>1.026208005037287</v>
       </c>
       <c r="E23">
-        <v>0.9299373286249806</v>
+        <v>0.936206270273341</v>
       </c>
       <c r="F23">
-        <v>0.9850049882081958</v>
+        <v>0.9876637933815471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046690673401707</v>
+        <v>1.046030579483274</v>
       </c>
       <c r="J23">
-        <v>0.9449718506378069</v>
+        <v>0.9518254791328922</v>
       </c>
       <c r="K23">
-        <v>1.043074335976321</v>
+        <v>1.04097634295958</v>
       </c>
       <c r="L23">
-        <v>0.9466887428680916</v>
+        <v>0.9528119452467669</v>
       </c>
       <c r="M23">
-        <v>1.000559615809514</v>
+        <v>1.003165077358379</v>
       </c>
       <c r="N23">
-        <v>0.9828885275743849</v>
+        <v>0.9929610331977681</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.009014572711926</v>
+        <v>1.011076713049687</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041585926266557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040117055821806</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023354482550957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9242441049303169</v>
+        <v>0.9300589619592533</v>
       </c>
       <c r="D24">
-        <v>1.03077663816794</v>
+        <v>1.028415547972103</v>
       </c>
       <c r="E24">
-        <v>0.9412347463257782</v>
+        <v>0.9462169023279384</v>
       </c>
       <c r="F24">
-        <v>0.9923985726103358</v>
+        <v>0.9944161082122909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047485545988298</v>
+        <v>1.046685716323807</v>
       </c>
       <c r="J24">
-        <v>0.9550060307463939</v>
+        <v>0.9605431381823549</v>
       </c>
       <c r="K24">
-        <v>1.044284010550551</v>
+        <v>1.041961377439521</v>
       </c>
       <c r="L24">
-        <v>0.956378910023816</v>
+        <v>0.9612592682159903</v>
       </c>
       <c r="M24">
-        <v>1.006560505924958</v>
+        <v>1.008541998018389</v>
       </c>
       <c r="N24">
-        <v>0.986645930749261</v>
+        <v>0.9949895480155571</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.013764077407034</v>
+        <v>1.015332354795513</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042433779699804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04080533099158</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023496437759947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9390644891547594</v>
+        <v>0.9439617957036585</v>
       </c>
       <c r="D25">
-        <v>1.033515890901986</v>
+        <v>1.030932874848088</v>
       </c>
       <c r="E25">
-        <v>0.9534766769293902</v>
+        <v>0.9576806229875905</v>
       </c>
       <c r="F25">
-        <v>1.000492257958785</v>
+        <v>1.002147092746303</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048313971184541</v>
+        <v>1.047403391323024</v>
       </c>
       <c r="J25">
-        <v>0.965832237362092</v>
+        <v>0.9705343228613164</v>
       </c>
       <c r="K25">
-        <v>1.045615277517454</v>
+        <v>1.043069251770156</v>
       </c>
       <c r="L25">
-        <v>0.9668428612580348</v>
+        <v>0.9709734534167729</v>
       </c>
       <c r="M25">
-        <v>1.013082937059741</v>
+        <v>1.014712169052693</v>
       </c>
       <c r="N25">
-        <v>0.9906936110635022</v>
+        <v>0.9979351046152423</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.01892632528065</v>
+        <v>1.020215792084813</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043372205526524</v>
+        <v>1.041585516482678</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023643632821641</v>
       </c>
     </row>
   </sheetData>
